--- a/수업교안.xlsx
+++ b/수업교안.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YOLO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93841110-FDC4-439B-85C8-F84ECEB02E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37C9779-EC6F-4CC4-8AAB-C44724CE4C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3015" yWindow="1410" windowWidth="12165" windowHeight="11385" xr2:uid="{F2F141D0-23C7-4AE5-87B1-116F8BEFD9C0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="21" activeTab="27" xr2:uid="{F2F141D0-23C7-4AE5-87B1-116F8BEFD9C0}"/>
   </bookViews>
   <sheets>
     <sheet name="연관분석" sheetId="1" r:id="rId1"/>
@@ -39,6 +39,9 @@
     <sheet name="모델설계1" sheetId="24" r:id="rId24"/>
     <sheet name="모델설계2" sheetId="26" r:id="rId25"/>
     <sheet name="모델설계3" sheetId="27" r:id="rId26"/>
+    <sheet name="Lenet-5_AlexNet" sheetId="28" r:id="rId27"/>
+    <sheet name="VGGNet_GoogleNet" sheetId="29" r:id="rId28"/>
+    <sheet name="ResNet" sheetId="30" r:id="rId29"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -20399,6 +20402,241 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>543848</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>181612</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0719651F-84D6-4445-BDA8-AE3433265315}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6962775" y="228600"/>
+          <a:ext cx="6611273" cy="4563112"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>610511</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>162555</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BEBD029-8159-4425-AA2D-362FFB483351}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257175" y="257175"/>
+          <a:ext cx="6525536" cy="4515480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>362854</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>48258</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5FDCAB8-D3C5-4191-8CDE-B24D3733C8F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6915150" y="333375"/>
+          <a:ext cx="6477904" cy="4534533"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>524780</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76831</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3B5DEC4-BF50-4829-94FF-0BE8D5C42704}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="209550" y="371475"/>
+          <a:ext cx="6487430" cy="4525006"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>229520</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>29206</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{940DDC39-06BC-4CC7-A312-C46074FDDCAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1181100" y="323850"/>
+          <a:ext cx="6592220" cy="4525006"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
@@ -22569,7 +22807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78561242-D1F0-4C34-8C41-49D71FE816EB}">
   <dimension ref="B1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -38242,7 +38480,7 @@
   <dimension ref="B2:BT68"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AV40" sqref="AV40"/>
+      <selection activeCell="AM63" sqref="AM63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -39444,6 +39682,54 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F0FFC85-2A87-4547-9196-B74228C39EF8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73C5D28B-12AB-469C-B12C-B3C87D88E945}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99BA69A4-A995-4A88-9FAF-7DD694815704}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5A7A9CC-3A78-4B1B-8DC9-4EF4C26D9234}">
   <dimension ref="B2:E23"/>

--- a/수업교안.xlsx
+++ b/수업교안.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YOLO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37C9779-EC6F-4CC4-8AAB-C44724CE4C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBBC10D-E070-41C3-88B3-CC9FD28D8FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="21" activeTab="27" xr2:uid="{F2F141D0-23C7-4AE5-87B1-116F8BEFD9C0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="23" activeTab="32" xr2:uid="{F2F141D0-23C7-4AE5-87B1-116F8BEFD9C0}"/>
   </bookViews>
   <sheets>
     <sheet name="연관분석" sheetId="1" r:id="rId1"/>
@@ -42,6 +42,10 @@
     <sheet name="Lenet-5_AlexNet" sheetId="28" r:id="rId27"/>
     <sheet name="VGGNet_GoogleNet" sheetId="29" r:id="rId28"/>
     <sheet name="ResNet" sheetId="30" r:id="rId29"/>
+    <sheet name="객체탐지의평가지표" sheetId="31" r:id="rId30"/>
+    <sheet name="SVM" sheetId="32" r:id="rId31"/>
+    <sheet name="앙상블" sheetId="33" r:id="rId32"/>
+    <sheet name="YOLO" sheetId="34" r:id="rId33"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -65,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="352">
   <si>
     <t>거래번호</t>
   </si>
@@ -1565,6 +1569,118 @@
     <t>BIAS 제외</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>IOU</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intersection over Union</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>합집합 중 교집합</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>합집합 면적</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>만</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>화소</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>교집합 면적</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>교집합</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>합집합</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>==</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>=&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mAP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 리콜과 프레시젼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. AP계산</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. mAP 계산</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVM 개념</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>값들의 지지벡터(최대 마진이 최대가 되는 지점)을 찾은 후에</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 값을 아우를 수 있는 분류 가설을 세우는 머신러닝 모형</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>voting</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bagging</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boosting</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>복원추출한 여러 모델의 의견을 합쳐서 답을 반환</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>모델을 학습 후 오답의 50%에 가중치를 더해 재학습 시키는, 부스팅하는 방식</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>모델의 결과를 모아서 투표</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>앙상블 모형의 3가지 분류</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AlexNet 이미지 첨부하기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>YOLO 작동 원리</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>신뢰도 = 확률 x IOU(합집합 중 교집합 비중)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2432,7 +2548,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2910,6 +3026,9 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2918,6 +3037,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -20406,50 +20531,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>543848</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>181612</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0719651F-84D6-4445-BDA8-AE3433265315}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6962775" y="228600"/>
-          <a:ext cx="6611273" cy="4563112"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -20475,7 +20556,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -20630,6 +20711,258 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57825</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>28857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CBA8393-5AE6-497B-9F2B-41D06764A2C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="3057525"/>
+          <a:ext cx="4839375" cy="2019582"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>343615</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>86602</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42A77B7B-A5F6-44ED-B818-3327820CA940}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="5553075"/>
+          <a:ext cx="5125165" cy="6287377"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>467257</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66854</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C83FF18B-2542-4F76-A61A-19ACD4C87D76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7629525" y="3200400"/>
+          <a:ext cx="3810532" cy="1286054"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>677132</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>95895</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56EC38FE-0C82-466F-9E74-8EE21604E53A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="714375"/>
+          <a:ext cx="6144482" cy="4620270"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>680483</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FEE9A0E-38A9-4C28-B120-91789D22D75F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="680483" y="447674"/>
+          <a:ext cx="6082267" cy="6505575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -32230,13 +32563,13 @@
       <c r="G6" s="92"/>
       <c r="H6" s="92"/>
       <c r="I6" s="92"/>
-      <c r="J6" s="160" t="s">
+      <c r="J6" s="161" t="s">
         <v>181</v>
       </c>
-      <c r="K6" s="160"/>
-      <c r="L6" s="160"/>
-      <c r="M6" s="160"/>
-      <c r="N6" s="160"/>
+      <c r="K6" s="161"/>
+      <c r="L6" s="161"/>
+      <c r="M6" s="161"/>
+      <c r="N6" s="161"/>
       <c r="O6" s="92"/>
       <c r="P6" s="92"/>
       <c r="Q6" s="92"/>
@@ -33634,16 +33967,16 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="17.25" thickBot="1">
-      <c r="B9" s="159" t="s">
+      <c r="B9" s="160" t="s">
         <v>189</v>
       </c>
-      <c r="C9" s="159"/>
-      <c r="D9" s="159"/>
-      <c r="E9" s="159"/>
-      <c r="F9" s="159"/>
-      <c r="G9" s="159"/>
-      <c r="H9" s="159"/>
-      <c r="I9" s="159"/>
+      <c r="C9" s="160"/>
+      <c r="D9" s="160"/>
+      <c r="E9" s="160"/>
+      <c r="F9" s="160"/>
+      <c r="G9" s="160"/>
+      <c r="H9" s="160"/>
+      <c r="I9" s="160"/>
     </row>
     <row r="10" spans="1:14" ht="17.25" thickBot="1">
       <c r="B10" s="108">
@@ -34494,13 +34827,13 @@
       <c r="D6" t="s">
         <v>39</v>
       </c>
-      <c r="T6" s="159" t="s">
+      <c r="T6" s="160" t="s">
         <v>57</v>
       </c>
-      <c r="U6" s="159"/>
-      <c r="V6" s="159"/>
-      <c r="W6" s="159"/>
-      <c r="X6" s="159"/>
+      <c r="U6" s="160"/>
+      <c r="V6" s="160"/>
+      <c r="W6" s="160"/>
+      <c r="X6" s="160"/>
     </row>
     <row r="7" spans="2:24">
       <c r="B7" t="s">
@@ -34860,13 +35193,13 @@
       </c>
     </row>
     <row r="22" spans="2:24">
-      <c r="T22" s="159" t="s">
+      <c r="T22" s="160" t="s">
         <v>58</v>
       </c>
-      <c r="U22" s="159"/>
-      <c r="V22" s="159"/>
-      <c r="W22" s="159"/>
-      <c r="X22" s="159"/>
+      <c r="U22" s="160"/>
+      <c r="V22" s="160"/>
+      <c r="W22" s="160"/>
+      <c r="X22" s="160"/>
     </row>
     <row r="23" spans="2:24">
       <c r="R23" s="14" t="s">
@@ -34983,13 +35316,13 @@
       </c>
     </row>
     <row r="31" spans="2:24">
-      <c r="T31" s="159" t="s">
+      <c r="T31" s="160" t="s">
         <v>59</v>
       </c>
-      <c r="U31" s="159"/>
-      <c r="V31" s="159"/>
-      <c r="W31" s="159"/>
-      <c r="X31" s="159"/>
+      <c r="U31" s="160"/>
+      <c r="V31" s="160"/>
+      <c r="W31" s="160"/>
+      <c r="X31" s="160"/>
     </row>
     <row r="32" spans="2:24">
       <c r="R32" s="14" t="s">
@@ -36177,11 +36510,11 @@
       <c r="Q12" s="133"/>
       <c r="R12" s="133"/>
       <c r="S12" s="133"/>
-      <c r="T12" s="161" t="s">
+      <c r="T12" s="162" t="s">
         <v>202</v>
       </c>
-      <c r="U12" s="161"/>
-      <c r="V12" s="161"/>
+      <c r="U12" s="162"/>
+      <c r="V12" s="162"/>
       <c r="W12" s="133"/>
       <c r="X12" s="133"/>
       <c r="Y12" s="133"/>
@@ -37755,7 +38088,7 @@
       </c>
     </row>
     <row r="68" spans="2:13">
-      <c r="B68" s="159" t="s">
+      <c r="B68" s="160" t="s">
         <v>267</v>
       </c>
       <c r="C68" s="144" t="s">
@@ -37775,7 +38108,7 @@
       </c>
     </row>
     <row r="69" spans="2:13">
-      <c r="B69" s="159"/>
+      <c r="B69" s="160"/>
       <c r="C69" t="s">
         <v>269</v>
       </c>
@@ -39684,17 +40017,24 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F0FFC85-2A87-4547-9196-B74228C39EF8}">
-  <dimension ref="A1"/>
+  <dimension ref="L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="12:12">
+      <c r="L2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -39702,7 +40042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73C5D28B-12AB-469C-B12C-B3C87D88E945}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
@@ -39947,6 +40287,224 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD6BA3F4-060D-4EA8-B390-A4D5026A37E6}">
+  <dimension ref="B2:L26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="2" spans="2:12" s="28" customFormat="1">
+      <c r="B2" s="28" t="s">
+        <v>324</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D4">
+        <v>70</v>
+      </c>
+      <c r="E4" t="s">
+        <v>328</v>
+      </c>
+      <c r="F4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" t="s">
+        <v>330</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>328</v>
+      </c>
+      <c r="F5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="160" t="s">
+        <v>324</v>
+      </c>
+      <c r="C7" s="144" t="s">
+        <v>331</v>
+      </c>
+      <c r="D7" s="163" t="s">
+        <v>333</v>
+      </c>
+      <c r="E7" s="144">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="17.25" thickBot="1">
+      <c r="B8" s="160"/>
+      <c r="C8" t="s">
+        <v>332</v>
+      </c>
+      <c r="D8" s="160"/>
+      <c r="E8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="17.25" thickBot="1">
+      <c r="D9" s="159" t="s">
+        <v>334</v>
+      </c>
+      <c r="E9" s="38">
+        <f>E7/E8</f>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" s="28" customFormat="1">
+      <c r="B12" s="28" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="L15" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>337</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB4815C-3B46-41DF-A416-BFDAF3009D2F}">
+  <dimension ref="B3:L6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="3" spans="2:12" s="28" customFormat="1">
+      <c r="B3" s="28" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="L5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="L6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53B3C56-6CA7-45DC-AD78-98FA5999B09D}">
+  <dimension ref="B2:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="2" spans="2:4" s="28" customFormat="1">
+      <c r="B2" s="28" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" t="s">
+        <v>344</v>
+      </c>
+      <c r="D5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F82608DA-4C1A-43B7-80D6-5DD1B9622C90}">
+  <dimension ref="C2:L6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="2" spans="3:12" s="28" customFormat="1">
+      <c r="C2" s="164" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12">
+      <c r="L6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6B113C3-EE4C-4CC0-B186-2E6B19C2DF2B}">
   <dimension ref="C3:V29"/>

--- a/수업교안.xlsx
+++ b/수업교안.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\YOLO\YOLO_bootcamp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B20D49B-C0A8-4FCA-97DD-8CC9AD03F35C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70486614-2228-4C75-A30F-20F07B9DE6C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="25" activeTab="33" xr2:uid="{F2F141D0-23C7-4AE5-87B1-116F8BEFD9C0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="28" activeTab="36" xr2:uid="{F2F141D0-23C7-4AE5-87B1-116F8BEFD9C0}"/>
   </bookViews>
   <sheets>
     <sheet name="연관분석" sheetId="1" r:id="rId1"/>
@@ -46,9 +46,10 @@
     <sheet name="SVM" sheetId="32" r:id="rId31"/>
     <sheet name="앙상블" sheetId="33" r:id="rId32"/>
     <sheet name="YOLO" sheetId="34" r:id="rId33"/>
-    <sheet name="Sheet1" sheetId="35" r:id="rId34"/>
-    <sheet name="Sheet2" sheetId="36" r:id="rId35"/>
+    <sheet name="다중선형회귀" sheetId="35" r:id="rId34"/>
+    <sheet name="순환신경망" sheetId="36" r:id="rId35"/>
     <sheet name="Sheet3" sheetId="37" r:id="rId36"/>
+    <sheet name="ImageDataGenerator" sheetId="38" r:id="rId37"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="415">
   <si>
     <t>거래번호</t>
   </si>
@@ -1697,6 +1698,197 @@
     <t>w4</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>dataset</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pad_sequence</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>: 데이터셋의 길이값을 맞춤</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(input 사이즈 고려)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dataset</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000자</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Embedding</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000 -&gt; 100</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSTM</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dense</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSTM -&gt; 기존 생각</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNN 구조 VS LSTM</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNN</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSTM 핵심</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4개 계층이 핵심으로, Cell State 는 각 요소의 가중치를 유지</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>최종 가중치</t>
+  </si>
+  <si>
+    <t>가중치</t>
+  </si>
+  <si>
+    <t>17*17</t>
+  </si>
+  <si>
+    <t>36*36</t>
+  </si>
+  <si>
+    <t>74 * 74</t>
+  </si>
+  <si>
+    <t>(72/2) * (72/2)</t>
+  </si>
+  <si>
+    <t>(148/2) * (148 /2)</t>
+  </si>
+  <si>
+    <t>148*148</t>
+  </si>
+  <si>
+    <t>34*34</t>
+  </si>
+  <si>
+    <t>72*72</t>
+  </si>
+  <si>
+    <t>valid 패딩</t>
+  </si>
+  <si>
+    <t>기본</t>
+  </si>
+  <si>
+    <t>Dense</t>
+  </si>
+  <si>
+    <t>Max Pooling</t>
+  </si>
+  <si>
+    <t>Flatten</t>
+  </si>
+  <si>
+    <t>커널 3*3</t>
+  </si>
+  <si>
+    <t>Con2D</t>
+  </si>
+  <si>
+    <t>150*150 *3</t>
+  </si>
+  <si>
+    <t>한 커널당 가중치 개수</t>
+  </si>
+  <si>
+    <t>따라서 ImageDataGenerator를 사용하더라도 실제 데이터의 갯수가 증가하는 것은 아니며, 훈련 중에 다양한 변형된 이미지를 실시간으로 생성해 활용하게 됩니다.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>즉, 변형된 이미지를 메모리에 저장하지 않고, 매 훈련 스텝마다 변형된 이미지를 동적으로 생성해 사용하는 것입니다.</t>
+  </si>
+  <si>
+    <t>파라미터 수=(커널 높이×커널 너비×입력 채널 수+1)×필터 수</t>
+  </si>
+  <si>
+    <t>하지만 이 변형은 훈련 중에만 이루어지며, 변형된 이미지를 저장하거나 데이터셋의 크기를 물리적으로 늘리지는 않습니다.</t>
+  </si>
+  <si>
+    <t>예를 들어, 회전, 이동, 확대, 축소, 좌우 반전, 밝기 조절 등의 변형을 적용해 훈련 데이터의 변형된 버전을 생성합니다.</t>
+  </si>
+  <si>
+    <t>대신, 훈련 중에 데이터를 실시간으로 변형하여 다양한 변형 이미지를 모델에 제공함으로써 과적합(overfitting)을 방지하고 모델</t>
+  </si>
+  <si>
+    <t>이미지 데이터셋의 다양성을 높이기 위해 사용됩니다. 하지만 이 도구는 실제로 데이터의 갯수를 늘리지 않습니다. 의 일반화 성능을 향상시킵니다.</t>
+  </si>
+  <si>
+    <t>                                   )</t>
+  </si>
+  <si>
+    <t>                                   # fill_mode='nearest'      # 빈 공간을 채우는 방법입니다. nearest 옵션은 가장 비슷한 색으로 채우게 됩니다.</t>
+  </si>
+  <si>
+    <t>                                   # vertical_flip=True,      # 수직 대칭 이미지를 만듭니다.</t>
+  </si>
+  <si>
+    <t>                                   # zoom_range=1.2,          # 확대 또는 축소시킵니다.</t>
+  </si>
+  <si>
+    <t>                                   # shear_range=0.7,         # 좌표 하나를 고정시키고 나머지를 이동시킵니다.</t>
+  </si>
+  <si>
+    <t>                                   # rotation_range=5,        # 정해진 각도만큼 회전시킵니다.</t>
+  </si>
+  <si>
+    <t>                                   height_shift_range=0.1,</t>
+  </si>
+  <si>
+    <t>                                   # 마찬가지로 위, 아래로 이동합니다.</t>
+  </si>
+  <si>
+    <t>                                   width_shift_range=0.1,</t>
+  </si>
+  <si>
+    <t>                                   # 전체 크기의 15% 범위에서 좌우로 이동합니다.</t>
+  </si>
+  <si>
+    <t>                                   horizontal_flip=True,</t>
+  </si>
+  <si>
+    <t>                                   # 수평 대칭 이미지를 50% 확률로 만들어 추가합니다.</t>
+  </si>
+  <si>
+    <t>train_datagen = ImageDataGenerator(rescale=1./255,          # 주어진 이미지의 크기를 설정합니다.</t>
+  </si>
+  <si>
+    <t># 학습셋의 변형을 설정하는 부분입니다.</t>
+  </si>
+  <si>
+    <t>ImageDataGenerator</t>
+  </si>
 </sst>
 </file>
 
@@ -1705,7 +1897,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1929,8 +2121,24 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="29">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2096,6 +2304,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2576,7 +2796,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3024,6 +3244,18 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3036,16 +3268,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -20984,8 +21219,8 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5391149" cy="936347"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -21027,6 +21262,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -21203,7 +21439,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -21267,8 +21503,8 @@
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5343525" cy="936347"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -21310,6 +21546,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -21486,7 +21723,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -21733,6 +21970,7360 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="직사각형 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{749FB474-9A15-C78E-62F4-6FCBA22B77D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676275" y="704850"/>
+          <a:ext cx="3429000" cy="4419600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>delicious</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t> apple ~~ : 780</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>자</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>...</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>delicious</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> apple ~~ : 780</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>자</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>delicious</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> apple ~~ : 780</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>자</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>delicious</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> apple ~~ : 780</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>자</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>delicious</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> apple ~~ : 780</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>자</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>delicious</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> apple ~~ : 780</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>자</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>delicious</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> apple ~~ : 780</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>자</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>delicious</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> apple ~~ : 780</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>자</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>delicious</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> apple ~~ : 780</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>자</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>delicious</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> apple ~~ : 780</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>자</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>delicious</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> apple ~~ : 780</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>자</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>delicious</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> apple ~~ : 780</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>자</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>delicious</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> apple ~~ : 1780</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>자</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> -&gt; 1000</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>자만 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>load</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>delicious</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> apple ~~ : 880</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>자</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>delicious</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> apple ~~ : 1500</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>자 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-&gt; 1000</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>자만 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>load</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>...</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="직선 연결선 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C003B494-61D1-E3C5-D4D6-06AD09C8CA8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2419350" y="885825"/>
+          <a:ext cx="1457325" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="직사각형 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4CC5B9D-0F4B-1F53-1A90-5B3DC4823A22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1390650" y="6343650"/>
+          <a:ext cx="647700" cy="2914650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="직사각형 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FBB912A-AA01-45B5-9AA3-0526968010E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3457575" y="6524624"/>
+          <a:ext cx="647700" cy="2305051"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="직사각형 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C4AFE0C-8BC8-4172-891D-00010F9BA700}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5514975" y="6334125"/>
+          <a:ext cx="647700" cy="2914650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="직사각형 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12ADB98C-7DD2-4047-8F44-72C2CBFCE657}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7562850" y="6391275"/>
+          <a:ext cx="647700" cy="2914650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1725344" cy="336246"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD03B868-A4FA-9525-482E-E3B61DF396E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="933450" y="6419850"/>
+          <a:ext cx="1725344" cy="336246"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="1"/>
+            <a:t>기사 내용 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1"/>
+            <a:t>+ PAD</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1" baseline="0"/>
+            <a:t> = 1000</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>자</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="1" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1725344" cy="336246"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B88CA2B8-2C58-4E95-A5D8-F264818F32C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="942975" y="6753225"/>
+          <a:ext cx="1725344" cy="336246"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="1"/>
+            <a:t>기사 내용 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1"/>
+            <a:t>+ PAD</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1" baseline="0"/>
+            <a:t> = 1000</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>자</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="1" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1725344" cy="336246"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66373DD9-F1EA-43EC-8E0E-A062DB60142D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="895350" y="7086600"/>
+          <a:ext cx="1725344" cy="336246"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="1"/>
+            <a:t>기사 내용 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1"/>
+            <a:t>+ PAD</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1" baseline="0"/>
+            <a:t> = 1000</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>자</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="1" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1725344" cy="336246"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB3DC7C1-88EC-49D5-BB5F-620080E2E1D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="923925" y="7372350"/>
+          <a:ext cx="1725344" cy="336246"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="1"/>
+            <a:t>기사 내용 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1"/>
+            <a:t>+ PAD</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1" baseline="0"/>
+            <a:t> = 1000</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>자</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="1" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>601394</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>44298</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="직선 화살표 연결선 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA3C2C06-D33D-1ABD-5B3A-E42B07B4FC66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2658794" y="6587973"/>
+          <a:ext cx="2818081" cy="3327"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1725344" cy="580159"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="TextBox 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31CA879D-6DB2-4B95-8542-B2C8779DC4C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2990850" y="6296025"/>
+          <a:ext cx="1725344" cy="580159"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="1"/>
+            <a:t>기사 내용 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1"/>
+            <a:t>+ PAD</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1" baseline="0"/>
+            <a:t> = 1000</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>자</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1" baseline="0"/>
+            <a:t>-&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>벡터화</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="1" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="직선 화살표 연결선 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8B4C9B9-F85A-B439-CA31-4277657D6981}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5924550" y="6600825"/>
+          <a:ext cx="1990725" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="직선 화살표 연결선 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{315F7665-47DF-491F-A92B-EBA494500A8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5924550" y="6686550"/>
+          <a:ext cx="1981200" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="직선 화살표 연결선 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D74F2DD-4881-49E9-84C4-A255D578F3CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5895975" y="6819900"/>
+          <a:ext cx="2009775" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="타원 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0173C53-81B9-0855-72F4-E90F8E071BD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7753350" y="6543675"/>
+          <a:ext cx="342900" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="타원 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6706E964-DBE1-B16C-81CF-2A4414C7DE48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7753350" y="6829425"/>
+          <a:ext cx="342900" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="타원 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3E58AB7-9899-477F-DBAE-A392B7400940}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7753350" y="7172325"/>
+          <a:ext cx="342900" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="직선 화살표 연결선 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{212F3E23-A4B4-F667-FE2B-989ADF542EE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8143875" y="7848600"/>
+          <a:ext cx="2009775" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="직사각형 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C7D90B4-D371-FE26-4DF1-50C1D4F6C21F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10248900" y="6505575"/>
+          <a:ext cx="1228725" cy="2943225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>category</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> 1 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>확률</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>category</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 2 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>확률</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>category</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 3 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>확률</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>...</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>category</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 64 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>확률</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="직선 화살표 연결선 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{540FF145-75DD-6A5A-9B8D-FB9C9614A49A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5838825" y="9248775"/>
+          <a:ext cx="0" cy="1724025"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="직사각형 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3003809-3471-D776-396A-A9CDBC11B787}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4733925" y="11649075"/>
+          <a:ext cx="800100" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="직사각형 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7309E69E-D936-4B3C-964A-76548FFCB071}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5800725" y="11639550"/>
+          <a:ext cx="800100" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="직사각형 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA66E5B2-4C6A-4ABA-A1E9-E3CF85759721}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6877050" y="11658600"/>
+          <a:ext cx="800100" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="직사각형 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17041CBB-7111-40B3-945E-80C97B13762D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7877175" y="11649075"/>
+          <a:ext cx="800100" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="직선 연결선 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C02D4F56-58C9-FC4A-913C-78FAB243541B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="40" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5133975" y="11430000"/>
+          <a:ext cx="0" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="46" name="타원 45">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3C446B4-8732-718F-C225-1C0AD54EC345}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4876799" y="10896600"/>
+              <a:ext cx="523875" cy="504825"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent5">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent5"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent5"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="ko-KR" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑤</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="46" name="타원 45">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3C446B4-8732-718F-C225-1C0AD54EC345}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4876799" y="10896600"/>
+              <a:ext cx="523875" cy="504825"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent5">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent5"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent5"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑤_1</a:t>
+              </a:r>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447674</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="47" name="타원 46">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82AE81C3-995B-45DA-BAB4-103208E54A5D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5934074" y="10906125"/>
+              <a:ext cx="523875" cy="504825"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent5">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent5"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent5"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="ko-KR" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑤</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="47" name="타원 46">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82AE81C3-995B-45DA-BAB4-103208E54A5D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5934074" y="10906125"/>
+              <a:ext cx="523875" cy="504825"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent5">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent5"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent5"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑤_1</a:t>
+              </a:r>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="48" name="타원 47">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E0297BE-7789-450E-BC9C-A8E6D74C9E6A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7048499" y="10906125"/>
+              <a:ext cx="523875" cy="504825"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent5">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent5"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent5"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="ko-KR" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑤</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="48" name="타원 47">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E0297BE-7789-450E-BC9C-A8E6D74C9E6A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7048499" y="10906125"/>
+              <a:ext cx="523875" cy="504825"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent5">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent5"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent5"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑤_1</a:t>
+              </a:r>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>447674</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="49" name="타원 48">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF1FC1FB-18ED-4D1F-854D-261A7D36F73E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7991474" y="10877550"/>
+              <a:ext cx="523875" cy="504825"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent5">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent5"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent5"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="ko-KR" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑤</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="49" name="타원 48">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF1FC1FB-18ED-4D1F-854D-261A7D36F73E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7991474" y="10877550"/>
+              <a:ext cx="523875" cy="504825"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent5">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent5"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent5"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑤_1</a:t>
+              </a:r>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="직선 연결선 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73F35C97-1A17-D527-7FAA-B7A75FD7E26B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="47" idx="4"/>
+          <a:endCxn id="41" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6196012" y="11410950"/>
+          <a:ext cx="4763" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>452437</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="직선 연결선 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1DC42EA-94A5-5940-FF7A-7178E5C467D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="48" idx="4"/>
+          <a:endCxn id="42" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7277100" y="11410950"/>
+          <a:ext cx="33337" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="직선 연결선 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8507EBF7-A938-97DA-4A9D-061D8EDFBD71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="49" idx="4"/>
+          <a:endCxn id="43" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8253412" y="11382375"/>
+          <a:ext cx="23813" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>200979</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>37146</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>8571</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="화살표: 오른쪽 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E156D71-D6BC-B56C-4F6C-4E13E543B7D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="4839177" y="12820173"/>
+          <a:ext cx="600075" cy="275272"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="직사각형 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A3C487C-557A-EB35-B55D-9A2D1DC35F80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3838575" y="13392150"/>
+          <a:ext cx="2600325" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>벡터화된 데이터 배열</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>8280</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>28350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>122040</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>47340</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="71" name="잉크 70">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD0D3CE3-F0E1-0100-2007-A755E722DFED}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6180480" y="12648975"/>
+            <a:ext cx="113760" cy="647640"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="71" name="잉크 70">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD0D3CE3-F0E1-0100-2007-A755E722DFED}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6162840" y="12631335"/>
+              <a:ext cx="149400" cy="683280"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>367200</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>50670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>595800</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>198930</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="74" name="잉크 73">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CFEB349-BB02-4F7F-53F7-597AC197339C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7225200" y="12671295"/>
+            <a:ext cx="228600" cy="567360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="74" name="잉크 73">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CFEB349-BB02-4F7F-53F7-597AC197339C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7207560" y="12653295"/>
+              <a:ext cx="264240" cy="603000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>180360</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>66150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>181080</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>104580</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="76" name="잉크 75">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9581B487-F220-FEC1-BE0D-721E6312EB0B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8409960" y="12686775"/>
+            <a:ext cx="720" cy="667080"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="76" name="잉크 75">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9581B487-F220-FEC1-BE0D-721E6312EB0B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8373960" y="12668775"/>
+              <a:ext cx="72000" cy="702720"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>63360</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>66150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>302400</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>188910</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="79" name="잉크 78">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DC0D377-7204-C9FB-32C0-8BA43686C3F7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8292960" y="12686775"/>
+            <a:ext cx="239040" cy="122760"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="79" name="잉크 78">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DC0D377-7204-C9FB-32C0-8BA43686C3F7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8274987" y="12669135"/>
+              <a:ext cx="274626" cy="158400"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304200</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>142380</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>101520</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>205710</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="80" name="잉크 79">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B17E578-B9E6-B9DA-36DC-820C7D697AE6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6476400" y="13391655"/>
+            <a:ext cx="2540520" cy="272880"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="80" name="잉크 79">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B17E578-B9E6-B9DA-36DC-820C7D697AE6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6458760" y="13374015"/>
+              <a:ext cx="2576160" cy="308520"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>290880</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>85410</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>455760</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>158490</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="81" name="잉크 80">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8708D13D-2745-5846-3E9E-0813702349F3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5091480" y="13963335"/>
+            <a:ext cx="164880" cy="73080"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="81" name="잉크 80">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8708D13D-2745-5846-3E9E-0813702349F3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5073840" y="13945335"/>
+              <a:ext cx="200520" cy="108720"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>631080</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>152040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>214920</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>25980</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="82" name="잉크 81">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7172ABC0-769D-1045-0831-68CA2551CBBA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6117480" y="13820415"/>
+            <a:ext cx="269640" cy="293040"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="82" name="잉크 81">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7172ABC0-769D-1045-0831-68CA2551CBBA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6099480" y="13802775"/>
+              <a:ext cx="305280" cy="328680"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>351000</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>161400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>590760</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>172890</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="83" name="잉크 82">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46C69195-9664-5C94-C61D-5F98EEEB8280}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7209000" y="13829775"/>
+            <a:ext cx="239760" cy="221040"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="83" name="잉크 82">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46C69195-9664-5C94-C61D-5F98EEEB8280}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7191000" y="13812135"/>
+              <a:ext cx="275400" cy="256680"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>7920</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>83640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>266760</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>155250</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="84" name="잉크 83">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4ABFEA9-5578-25FE-F1CA-9BDB7F172E2E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8237520" y="13752015"/>
+            <a:ext cx="258840" cy="281160"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="84" name="잉크 83">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4ABFEA9-5578-25FE-F1CA-9BDB7F172E2E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8219520" y="13734015"/>
+              <a:ext cx="294480" cy="316800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>307800</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>198930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>48600</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>65940</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="101" name="잉크 100">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CA44054-01B3-F619-2EBA-03CCC2EDD041}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4422600" y="10724055"/>
+            <a:ext cx="4541400" cy="914760"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="101" name="잉크 100">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CA44054-01B3-F619-2EBA-03CCC2EDD041}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4404600" y="10706062"/>
+              <a:ext cx="4577040" cy="950386"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142200</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>139710</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>623520</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>190410</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="107" name="잉크 106">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CB5F288-71F7-2B00-ED7A-5F4540498F79}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4942800" y="11922135"/>
+            <a:ext cx="481320" cy="469800"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="107" name="잉크 106">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CB5F288-71F7-2B00-ED7A-5F4540498F79}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4924800" y="11904495"/>
+              <a:ext cx="516960" cy="505440"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="109" name="직선 화살표 연결선 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D6E63A2-7845-0C7B-CAFB-375FC4A92D55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4514850" y="11391900"/>
+          <a:ext cx="5314950" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2346283" cy="580159"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="110" name="TextBox 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C70AE794-CC72-C53A-261F-C2ABED15F0A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9915525" y="11106150"/>
+          <a:ext cx="2346283" cy="580159"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>히든 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>??</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>스테이트 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>전체 가중치 흐름</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>히든 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>??</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>쉘</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>??</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t> : </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>마지막 요소의 가중치</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>448401</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>124250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EA3EED6-CEB2-1072-FA9E-152A8BA19E6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733425" y="14725650"/>
+          <a:ext cx="5201376" cy="3048425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="직사각형 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDF101E0-E79D-8365-4A5F-45E0BFDA7F65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7781925" y="15182850"/>
+          <a:ext cx="914400" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>Input</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="직사각형 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E876E3B8-276A-45CE-AF7D-2B3F4A358325}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7820025" y="17087850"/>
+          <a:ext cx="914400" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>hidden</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>lstm</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>의 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>units</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="직사각형 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA749EAF-2A86-2B88-0E6C-1A63DEED9CC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9896475" y="14716125"/>
+          <a:ext cx="3438525" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>Input</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>hidden_dim</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="직사각형 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5053E7B7-3358-49A6-B173-95CAFFDFF389}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9896475" y="15611475"/>
+          <a:ext cx="3438525" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>Forget</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>hidden_dim</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="직사각형 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBD5EE62-6DDF-46DD-8A48-C485665CA21D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9906000" y="16649700"/>
+          <a:ext cx="3438525" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>Cell</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>hidden_dim</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="직사각형 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D51DCCB-1660-4319-AA0C-47CEA6416506}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9925050" y="17678400"/>
+          <a:ext cx="3438525" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>Output</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>hidden_dim</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="직사각형 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DA9C2FB-52DE-84BA-2040-3844723F556D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14544676" y="18602325"/>
+          <a:ext cx="781050" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>Bias</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="직선 연결선 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB9CFC5F-0F06-0E0D-454E-F7C786C33FB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="3"/>
+          <a:endCxn id="19" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8696325" y="15011400"/>
+          <a:ext cx="1200150" cy="490538"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="직선 연결선 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46EF78F2-127C-D316-5895-6B3BF1DCC62A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="3"/>
+          <a:endCxn id="20" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8696325" y="15501938"/>
+          <a:ext cx="1200150" cy="404812"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="직선 연결선 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90FDB935-163E-B32D-E8AA-798143B4A874}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="3"/>
+          <a:endCxn id="21" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8696325" y="15501938"/>
+          <a:ext cx="1209675" cy="1443037"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="직선 연결선 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9869F8D-F237-458F-B92A-B2B26F022409}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="3"/>
+          <a:endCxn id="23" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8696325" y="15501938"/>
+          <a:ext cx="1228725" cy="2471737"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="직선 연결선 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC37698D-1D08-AC70-18DE-E6B415079693}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="3"/>
+          <a:endCxn id="19" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8734425" y="15011400"/>
+          <a:ext cx="1162050" cy="2395538"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="직선 연결선 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC8FB162-4118-CB57-1E46-1F8ED00AC3D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="3"/>
+          <a:endCxn id="20" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8734425" y="15906750"/>
+          <a:ext cx="1162050" cy="1500188"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="직선 연결선 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F7E8D7C-2023-6564-37DD-68D4978208E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="3"/>
+          <a:endCxn id="21" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8734425" y="16944975"/>
+          <a:ext cx="1171575" cy="461963"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="직선 연결선 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F63B4408-3021-1838-DC30-4E7DDE93DA1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="3"/>
+          <a:endCxn id="23" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8734425" y="17406938"/>
+          <a:ext cx="1190625" cy="566737"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="직사각형 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF00FB92-AF8C-4502-B10C-91311189BBF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15754350" y="16125825"/>
+          <a:ext cx="914400" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>Result</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>52388</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="직선 연결선 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3B9F28E-DB96-B319-AADB-88CF802CDF84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="19" idx="3"/>
+          <a:endCxn id="61" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13335000" y="15011400"/>
+          <a:ext cx="2419350" cy="1433513"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>52388</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="직선 연결선 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EEA34AD-E03A-DD09-6965-2075F133F749}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="20" idx="3"/>
+          <a:endCxn id="61" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13335000" y="15906750"/>
+          <a:ext cx="2419350" cy="538163"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>52388</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="직선 연결선 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3D851F6-C5A1-A52C-2BB1-BEC68223B7AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="3"/>
+          <a:endCxn id="61" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13344525" y="16444913"/>
+          <a:ext cx="2409825" cy="500062"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>52388</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="직선 연결선 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E804AB2D-A8B3-DAE1-FDAF-D7FA8A36BF9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="23" idx="3"/>
+          <a:endCxn id="61" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13363575" y="16444913"/>
+          <a:ext cx="2390775" cy="1528762"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="직선 화살표 연결선 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CAC6BB9-D6A3-5414-E8DD-4CE510BFECB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="25" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="14411325" y="17287875"/>
+          <a:ext cx="523876" cy="1314450"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="직선 화살표 연결선 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC68354C-CF2D-3C93-4EAA-9A7A9FF5DBF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="25" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="14649450" y="16687800"/>
+          <a:ext cx="285751" cy="1914525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="직선 화살표 연결선 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FCC58A4-3E5C-893B-3CB5-64AE1A7747DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="25" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14935201" y="16306800"/>
+          <a:ext cx="123824" cy="2295525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="86" name="직선 화살표 연결선 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEC9CB7F-D9E2-E7EB-7EA9-FD27ACC35F55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="25" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14935201" y="16192500"/>
+          <a:ext cx="476249" cy="2409825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>645123</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>515486</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>96110</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="87" name="그림 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D997C926-3E04-C637-2C08-8EB151FC83AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="645123" y="17983200"/>
+          <a:ext cx="4670963" cy="3534635"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>353430</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>190836</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="88" name="그림 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE2C2556-143B-EAC3-B3F8-F8F1D8E95C20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="14592300"/>
+          <a:ext cx="7201905" cy="2410161"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>63540</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>114759</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="89" name="그림 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B50D3C8E-7944-5F20-DBC8-ACA851F9AD66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8296275" y="14801849"/>
+          <a:ext cx="5483265" cy="2124535"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>295965</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>200403</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="90" name="그림 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7981F06-D736-5C98-23A8-ECB3F5BD2443}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13868400" y="14725650"/>
+          <a:ext cx="4944165" cy="2705478"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>379302</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>114934</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="91" name="그림 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94AC00E1-B263-3CA2-264A-E5A9A7D16F62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="742950" y="18240375"/>
+          <a:ext cx="5122752" cy="2667634"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>118759</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>601286</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>191088</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="92" name="그림 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0588E6C-73BE-1402-C777-59AA340A07F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6248399" y="18187684"/>
+          <a:ext cx="5325687" cy="2586929"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>119602</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>420238</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>181487</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="93" name="그림 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64E7FFF1-71A5-31DB-B0E0-EF9E7E9EAEE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11830049" y="18188527"/>
+          <a:ext cx="5735189" cy="2576485"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>184827</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>96367</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>5784</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="94" name="그림 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1A6A4C5-38AA-C916-921C-3B91C443471B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17802225" y="18253752"/>
+          <a:ext cx="4925542" cy="2126007"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="순서도: 연결자 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70763DC8-91C5-46E4-8240-74BD2D575ABC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6315075" y="6134100"/>
+          <a:ext cx="371475" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="순서도: 연결자 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBE36FBE-2E69-4981-84B3-59BB83279A11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6315075" y="6562725"/>
+          <a:ext cx="371475" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="순서도: 연결자 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7D42630-613B-4DFD-B8C6-3AE05FC8A156}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6315075" y="7467600"/>
+          <a:ext cx="371475" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="순서도: 연결자 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA08F13C-D6DD-4E7A-9EAA-78BEB193F13B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11125200" y="6124575"/>
+          <a:ext cx="371475" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="순서도: 연결자 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{140F923B-6B53-45AA-80E2-9CA6F2770B06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11125200" y="6591300"/>
+          <a:ext cx="371475" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="순서도: 연결자 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD79A256-FD17-4E6F-9A8B-2F8D4499EBEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11134725" y="7515225"/>
+          <a:ext cx="371475" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="순서도: 연결자 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC821AB1-8048-4A01-8FB8-4125962557AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16621125" y="5905500"/>
+          <a:ext cx="371475" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="순서도: 연결자 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5BA9576-8BC1-4EB7-A500-CE13B8C8C7D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16621125" y="6372225"/>
+          <a:ext cx="371475" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="순서도: 연결자 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B126A75D-4FAB-411A-886F-9D551C826EF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16630650" y="7296150"/>
+          <a:ext cx="371475" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -23416,6 +31007,329 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-10-01T03:34:09.474"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">267 1799 24402,'-132'-1798'0,"-2"2124"0,268-652 0,46 629 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink10.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-10-01T03:33:50.436"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1367 347 24575,'0'-1'0,"-1"0"0,1 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,0 0 0,0-1 0,0 1 0,0 0 0,-1 0 0,-29-6 0,28 6 0,-112-9 0,-171 9 0,124 3 0,-42-4 0,-190 2 0,384-1 0,0 1 0,0 0 0,0 0 0,0 1 0,0 0 0,0 1 0,-13 5 0,20-6 0,-1 0 0,1 0 0,-1 0 0,1 1 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 1 0,1-1 0,0 1 0,0-1 0,0 1 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 5 0,-2 37 0,1-1 0,2 1 0,2-1 0,15 88 0,9 13 0,-14-93 0,-3 1 0,4 87 0,-12-88 0,3 0 0,2-1 0,12 54 0,-11-82 0,2-1 0,14 31 0,-13-37 0,-2 1 0,0 0 0,-1 0 0,-1 1 0,3 26 0,-6-3 0,-3-33 0,1-1 0,0 0 0,1 0 0,0 0 0,0 1 0,4 11 0,-4-17 0,1-1 0,-1 1 0,1 0 0,-1-1 0,1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1-1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,4 0 0,29 3 21,0-1-1,1-2 1,-1-1-1,0-2 1,65-12-1,-45 6-764,71-1 0,-103 9-6082</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2119.58">11659 56 24575,'3'2'0,"1"0"0,-1 0 0,1-1 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 0 0,6 0 0,4 1 0,79 3 0,0-5 0,0-3 0,98-19 0,-38 6 0,-67-1 0,-42 8 0,-42 9 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,0 1 0,-1-1 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 3 0,1 10 0,0 0 0,-1 0 0,-1 0 0,-2 17 0,1-15 0,21 398 0,-17-386 0,19 164 0,-8-85 0,1 130 0,-15-97 0,-3 128 0,3-266 0,-1 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,-4 1 0,-10 1 0,0 0 0,-1-2 0,1 0 0,-27-2 0,18 0 0,-117-2-1365,78 2-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3070.54">6050 1194 24575</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3476.44">6315 1141 24575,'0'0'-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3863.44">6553 1141 24575,'0'0'-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4218.64">6844 1141 24575,'0'0'-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="42291.53">4992 1273 24575,'41'-2'0,"-28"1"0,0 0 0,-1 1 0,1 0 0,0 1 0,0 0 0,20 6 0,-30-6 0,-1 1 0,1-1 0,-1 1 0,0 0 0,1 0 0,-1-1 0,0 1 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 1 0,-1-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0-1 0,-1 1 0,1 0 0,-2 4 0,0 6 0,-1 0 0,0-1 0,-1 1 0,0-1 0,-8 16 0,6-18 0,1 0 0,-1-1 0,-1 0 0,0 0 0,0 0 0,-1-1 0,0 0 0,0-1 0,-15 11 0,42-24 31,1 2 0,36-4 0,10-2-1489,-11-1-5368</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="46544.88">10125 850 24575,'2'0'0,"-1"1"0,1-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,0 2 0,14 55 0,-13-47 0,11 63 0,3 111 0,9 51 0,-20-210 0,1 0 0,1 0 0,1-1 0,2-1 0,0 1 0,22 35 0,-29-56 0,0-1 0,0 1 0,1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,1-1 0,-1 0 0,1 1 0,0-2 0,0 1 0,0-1 0,1 1 0,-1-1 0,0-1 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1-1 0,0 1 0,-1-1 0,1-1 0,0 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,7-4 0,-4 2 0,0 0 0,0-1 0,0-1 0,0 1 0,-1-1 0,0-1 0,0 0 0,0 0 0,-1 0 0,0-1 0,0 0 0,0-1 0,-1 1 0,0-1 0,-1 0 0,9-17 0,-6 3 0,-1 1 0,-2-1 0,0 0 0,-1 0 0,2-43 0,-10-120 0,0 98 0,4 86 0,-4-44 0,4 44 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,-2 0 0,1 1 0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 3 0,-4 46 0,5-44 0,-2 9 0,2 0 0,0-1 0,1 1 0,0-1 0,1 1 0,1-1 0,1 0 0,0 0 0,0 0 0,2 0 0,0-1 0,1 0 0,0 0 0,1 0 0,0-1 0,1-1 0,1 1 0,0-1 0,22 19 0,-28-28 0,-1 0 0,1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1-1 0,0 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,0-1 0,1 0 0,-1 0 0,0-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0-1 0,-1 1 0,1-1 0,-1 0 0,0 0 0,4-4 0,2-2 0,-1 0 0,0 0 0,-1-1 0,0 0 0,0 0 0,-1-1 0,0 1 0,-1-2 0,0 1 0,6-23 0,-5-10 0,-1-1 0,-3 0 0,-6-87 0,0 29 0,2 64-682,-13-67-1,10 79-6143</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="47329.2">11104 1167 24575,'0'-1'0,"0"1"0,0-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1 0 0,0-1 0,-1 1 0,1-1 0,0 1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,0 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 1 0,-23 9 0,19-5 0,-1 0 0,1 1 0,0 0 0,0 0 0,0 0 0,1 0 0,0 1 0,0 0 0,1 0 0,0 0 0,0 0 0,0 0 0,1 1 0,-2 13 0,1-2 0,0-1 0,2 0 0,0 1 0,1-1 0,2 21 0,-1-36 0,-1 1 0,0-1 0,1 1 0,0-1 0,0 1 0,0-1 0,0 0 0,1 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,1-1 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,1-1 0,6 1 0,-2-1 0,0 0 0,0-1 0,-1 0 0,1 0 0,0-1 0,-1 0 0,1 0 0,-1-1 0,0 1 0,0-2 0,0 1 0,0-1 0,-1 0 0,8-6 0,6-5-1365,0 2-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="47868.56">11183 1141 24575,'0'9'0,"0"16"0,0 13 0,0 10 0,0 0 0,0 1 0,0-3 0,0-5 0,0-4 0,0-5 0,0-8-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="43694.88">7823 1220 24575,'-16'32'0,"12"-16"0,1 1 0,0-1 0,1 1 0,1 0 0,1 0 0,0 0 0,1-1 0,5 25 0,-5-39 0,1 1 0,-1-1 0,0 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,1 1 0,-1-1 0,1 0 0,0 0 0,-1 0 0,1 0 0,0-1 0,-1 1 0,1-1 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,0 0 0,4-3 0,1 2 0,-1-1 0,1 0 0,-1-1 0,0 0 0,0 0 0,0 0 0,0-1 0,-1 0 0,1-1 0,11-9 0,-11 6 0,-1-1 0,0 1 0,0-1 0,-1 0 0,0 0 0,-1-1 0,0 1 0,0-1 0,-1 0 0,0 0 0,2-14 0,0-14 0,0-67 0,-3 47 0,11 83 0,4 22 0,-12-34 0,34 93 0,-34-94 0,1 0 0,0 0 0,1 0 0,1-1 0,-1 0 0,11 10 0,-17-19 0,1 0 0,-1 0 0,1 0 0,0-1 0,-1 1 0,1 0 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 0 0,0 0 0,0-1 0,1 1 0,-1-1 0,0 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0-1 0,1 1 0,-1-1 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,2-3 0,2-3 0,0 0 0,-1-1 0,0 1 0,-1-1 0,1 0 0,-2-1 0,1 1 0,-1 0 0,-1-1 0,1-14 0,-3 14-105,0 1 0,0-1 0,-2 1 0,-4-15 0,5 15-735,-4-9-5986</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="44918.86">8352 1220 24575,'6'-1'0,"-1"-1"0,1 1 0,-1-1 0,0 0 0,1-1 0,-1 1 0,0-1 0,0 0 0,0 0 0,8-7 0,18-11 0,-26 19 0,0-1 0,-1 1 0,1 0 0,1 0 0,-1 1 0,0 0 0,0-1 0,1 2 0,-1-1 0,0 1 0,1-1 0,-1 2 0,1-1 0,-1 0 0,0 1 0,7 2 0,-9-2 0,1 1 0,-1 0 0,0 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,-1 1 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,0 0 0,0 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1 5 0,0-5 0,0-1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1-1 0,-3 3 0,-9 15 0,46 8 0,-27-21 0,-1 1 0,0 0 0,0 1 0,-1-1 0,0 1 0,-1-1 0,0 1 0,0 0 0,-1 0 0,1 16 0,-2-13 0,0-1 0,0 0 0,-1 0 0,-1 0 0,1 1 0,-2-1 0,0-1 0,-5 14 0,6-19-136,0-1-1,-1 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0-1-1,-1 1 0,-7 4 1,-9 5-6690</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10885.89">2796 1220 24575,'127'-3'0,"-36"1"0,121 11 0,-199-7 0,-1 1 0,1 0 0,-1 1 0,0 0 0,0 1 0,0 0 0,-1 1 0,0 0 0,0 1 0,-1 0 0,1 1 0,-1 0 0,13 15 0,7 10 0,-2 1 0,37 60 0,-21-29 0,116 167 0,-139-205-107,81 116 347,-86-118-614,-1 0-1,-1 1 1,19 52-1,-27-56-6451</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12168.97">3722 2199 24575,'27'-1'0,"-4"1"0,-1 0 0,0 1 0,0 1 0,1 1 0,21 6 0,-42-8 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1-1 0,1 1 0,0-1 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0-1 0,-1 1 0,1-1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,0 1 0,5-4 0,-3-1 0,-1 1 0,1-1 0,-1 0 0,0 0 0,0-1 0,-1 1 0,0-1 0,0 1 0,1-8 0,1 1 1,1 1-1,0 0 1,1 0-1,1 0 1,-1 1-1,12-14 1,7-12-1370,-9 10-5457</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="49793.71">1790 903 24575,'-3'58'0,"-17"93"0,15-116 0,-6 19 0,-29 83 0,26-96 0,2 0 0,2 0 0,-10 83 0,19-121 0,1 1 0,0-1 0,0 1 0,0-1 0,0 0 0,1 1 0,-1-1 0,1 0 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,5 5 0,-3-5 0,1 0 0,-1-1 0,1 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 0 0,9 1 0,2 0 0,0 0 0,0-1 0,0 0 0,0-1 0,0-1 0,0 0 0,0-1 0,0-1 0,21-7 0,-28 7 0,1 0 0,-1-1 0,0 0 0,0 0 0,-1-1 0,0 0 0,1 0 0,-2-1 0,1 0 0,-1 0 0,1-1 0,-2 0 0,1 0 0,-1 0 0,0-1 0,-1 1 0,6-12 0,-1-7 0,-2-1 0,0 0 0,-2 0 0,-1-1 0,-1 1 0,-1-1 0,-3-42 0,1 35 0,0 0 0,3 0 0,13-69 0,21-17 0,-37 112 0,-2 8 0,-9 17 0,-11 30 0,12-2 0,2 0 0,2 0 0,2 1 0,2 0 0,4 48 0,-2-89 0,0 1 0,1-1 0,-1 1 0,1 0 0,1-1 0,-1 0 0,0 1 0,1-1 0,0 0 0,0 1 0,1-1 0,-1-1 0,1 1 0,-1 0 0,1 0 0,0-1 0,1 0 0,-1 1 0,1-1 0,-1-1 0,1 1 0,0 0 0,0-1 0,6 3 0,-3-2 0,0 0 0,0-1 0,1 0 0,-1 0 0,1 0 0,-1-1 0,1 0 0,0-1 0,0 0 0,-1 0 0,1 0 0,0-1 0,-1 0 0,10-3 0,-10 1 0,0 0 0,0-1 0,-1 0 0,0 0 0,1 0 0,-2-1 0,1 1 0,0-2 0,-1 1 0,0 0 0,0-1 0,-1 0 0,0 0 0,0-1 0,5-9 0,-2 2 0,0-1 0,-1 0 0,0 0 0,-1 0 0,-1-1 0,3-19 0,3-32-97,5-56 314,-14 108-464,0 0-1,-2 0 1,0-1-1,0 1 1,-7-26-1,2 23-6578</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="50534.68">2478 1167 24575,'0'4'0,"0"7"0,0 9 0,0 7 0,0 3 0,0 1 0,0-1 0,0 0 0,0-2 0,4-4 0,3-3 0,3-5 0,0 5 0,4 2 0,-1-2-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="54385.39">4410 1061 24575,'0'19'0,"2"1"0,0-1 0,1 0 0,1 1 0,1-1 0,1-1 0,0 1 0,1-1 0,13 23 0,-17-34 0,1-1 0,0 1 0,0-1 0,0 0 0,1 0 0,0-1 0,0 1 0,0-1 0,1 0 0,-1-1 0,1 1 0,0-1 0,1 0 0,-1-1 0,1 1 0,-1-1 0,1-1 0,0 1 0,0-1 0,1 0 0,-1-1 0,0 0 0,0 0 0,1 0 0,-1-1 0,1 0 0,9-2 0,-11 1 0,0 0 0,0-1 0,0 0 0,0 0 0,0-1 0,-1 0 0,1 1 0,-1-2 0,0 1 0,0-1 0,0 0 0,5-4 0,2-6 0,0 1 0,17-27 0,-7 9 0,-22 30 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,0 0 0,0-1 0,1 1 0,-1 0 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,4 17 0,-5 28 0,0-45 0,-16 117 0,9-84 0,2 0 0,2 1 0,1 0 0,3 37 0,-2-69 0,1 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,-1-1 0,1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,2-2 0,6-1 0,-1 0 0,0-1 0,-1 0 0,1 0 0,-1-1 0,0 0 0,12-10 0,-4-1 10,0 0 0,-1-1 0,-1-1 0,0-1 0,-2 0 0,0 0 0,-1-2 0,-1 1 0,-1-1 0,-1 0 0,11-43 0,-4-5-505,-2 0 0,4-111 0,-15 149-6331</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="56253.16">5548 1538 24575,'2'-2'0,"0"0"0,1 1 0,-1-1 0,0 1 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 1 0,0-1 0,-1 1 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,-1-1 0,1 1 0,0 0 0,2 1 0,10 3 0,0 1 0,24 14 0,-37-19 0,123 68 0,188 97 0,-168-97 0,-3 6 0,180 127 0,-304-187-80,0 0 0,0 1-1,-2 1 1,0 0 0,0 1-1,-2 1 1,-1 0 0,0 1-1,-1 1 1,-1 0 0,-1 0 0,-1 1-1,-1 1 1,-1-1 0,-1 1-1,6 45 1,-10-46-6746</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="57006.31">6606 2490 24575,'112'1'0,"122"-3"0,-230 1 0,0 1 0,0-1 0,0 0 0,0 0 0,-1 0 0,1-1 0,0 1 0,-1-1 0,1 0 0,-1 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,-1 0 0,1 0 0,-1-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,1-6 0,3-9 0,-2-1 0,0 1 0,-1-1 0,1-20 0,-1 6 0,3-11-1365,1 3-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="58005.37">8855 1485 24575,'17'1'0,"1"0"0,-1 2 0,0 0 0,0 1 0,0 1 0,-1 0 0,0 1 0,0 1 0,0 1 0,-1 0 0,0 1 0,0 0 0,25 23 0,6 9 0,-2 3 0,57 73 0,-99-115 0,26 35 0,-2 2 0,-1 0 0,-2 2 0,-2 0 0,-2 2 0,-2 0 0,14 53 0,55 124-1365,-76-188-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="58839.95">9199 2358 24575,'4'0'0,"11"0"0,7 0 0,5 0 0,6 0 0,7 0 0,1 4 0,-2 7 0,-4 0 0,-2 0 0,-3-4 0,-1-10 0,-3-11 0,-4-6 0,-6-5 0,-7-3 0,1 0 0,-2 3-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink11.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-10-01T03:34:53.174"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">2 115 24575,'-2'147'0,"5"160"0,-3-303 0,0-1 0,0 0 0,1 1 0,-1-1 0,1 0 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0-1 0,0 0 0,0 1 0,6 0 0,7 2 0,0-2 0,1 0 0,-1 0 0,31-3 0,-16 1 0,285-4-1365,-227 2-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="945.28">822 9 24575,'-2'-2'0,"0"1"0,0 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 1 0,0-1 0,-1 1 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 1 0,1-1 0,0 1 0,0-1 0,-1 1 0,-3 2 0,-43 22 0,43-20 0,1 0 0,0 1 0,0-1 0,1 1 0,-1 0 0,1 0 0,1 0 0,-1 1 0,1-1 0,0 1 0,0 0 0,1 0 0,-2 7 0,1-2 0,1 0 0,1 0 0,0-1 0,0 1 0,1 0 0,1 0 0,2 16 0,-2-25 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,1-1 0,-1 1 0,1-1 0,-1 0 0,1 0 0,0 0 0,0-1 0,0 1 0,4 1 0,9 4 0,1-1 0,31 7 0,4 3 0,-42-13 0,0 1 0,-1 1 0,1 0 0,-1 0 0,0 1 0,-1 0 0,0 0 0,9 9 0,-14-11 0,1 1 0,-1-1 0,0 1 0,0 0 0,0 1 0,-1-1 0,0 0 0,0 1 0,0-1 0,-1 1 0,1 0 0,-1-1 0,-1 1 0,1 0 0,-1 0 0,0 6 0,0 1-124,-1 0 0,0 0 0,0 0 0,-2 0 0,1-1 0,-2 1-1,0-1 1,0 1 0,-1-1 0,-8 15 0,-4-1-6702</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1577.42">266 1041 24575,'0'-5'0,"9"-1"0,12 0 0,16 1 0,10-2 0,12-1 0,4-4 0,0 1 0,-1 2 0,-12 3-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1944.82">742 961 24575,'-5'0'0,"-5"0"0,-2 13 0,-2 10 0,-5 9 0,2 4 0,0 0 0,1-1 0,5-7-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3044.17">928 1305 24575,'-2'-83'0,"0"35"0,2 1 0,9-62 0,-9 104 0,2 0 0,-1 1 0,0-1 0,1 1 0,0-1 0,0 1 0,4-7 0,-5 10 0,-1 1 0,0-1 0,1 0 0,-1 1 0,1-1 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,0 0 0,0 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,0-1 0,-1 0 0,1 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 1 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1-1 0,0 2 0,6 9 0,0 0 0,-1 0 0,-1 0 0,0 1 0,4 17 0,-7-20 0,1 0 0,0-1 0,1 1 0,0-1 0,0 0 0,0 0 0,1 0 0,1 0 0,-1-1 0,1 1 0,1-1 0,7 8 0,-12-14 0,0-1 0,-1 1 0,1 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,1-1 0,0 0 0,1-1 0,-1 1 0,0-1 0,-1 1 0,1-1 0,0 0 0,0 0 0,-1 0 0,1 0 0,1-3 0,4-7 0,-1-1 0,-1 1 0,5-15 0,-8 20 0,16-52 0,-13 40 0,1-1 0,0 1 0,2 0 0,19-36 0,-26 54 0,0-1 0,0 1 0,-1-1 0,1 1 0,0 0 0,0-1 0,0 1 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,0 0 0,1 1 0,0-1 0,-1 1 0,1-1 0,-1 1 0,1 0 0,1-1 0,-1 2 0,0 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,0 1 0,0-1 0,-1 1 0,2 1 0,2 7 0,0 0 0,0 1 0,-1-1 0,0 1 0,2 18 0,-2 11-106,-2-14-209,2 0 1,1 0-1,12 45 0,-6-43-6511</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-10-01T03:34:12.363"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">12 309 24575,'-1'0'0,"1"0"0,0 0 0,-1 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,0 0 0,-1-1 0,1 1 0,0 0 0,-1-1 0,1 1 0,0 0 0,0-1 0,-1 1 0,1 0 0,0-1 0,0 1 0,-1-1 0,1 1 0,0 0 0,0-1 0,0 1 0,0-1 0,2-20 0,15-18 0,17-5 0,1 1 0,65-60 0,-87 90 0,-9 9 0,0 1 0,0-1 0,0 1 0,0 0 0,0 1 0,1-1 0,-1 1 0,1-1 0,0 1 0,0 1 0,-1-1 0,1 1 0,1 0 0,-1 0 0,0 0 0,0 1 0,0-1 0,0 1 0,0 0 0,1 1 0,-1 0 0,0-1 0,0 2 0,0-1 0,0 0 0,5 3 0,11 6 0,0 1 0,-1 0 0,-1 2 0,30 23 0,-6-5 0,47 28-1365,-54-35-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1426.87">276 71 24575,'0'1482'-1365,"0"-1460"-5461</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-10-01T03:34:15.964"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1852 24222,'0'-1852'0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink4.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-10-01T03:34:18.097"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">326 1 24575,'-5'4'0,"0"7"0,-10 5 0,-11 5 0,-5 3 0,-2 7 0,-4 2 0,-1 5 0,2 0 0,2 3 0,-1 3 0,4-6-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="880.97">406 28 24575,'4'0'0,"11"0"0,7 0 0,5 0 0,1 0 0,2 0 0,-6 4 0,4 7 0,0 5 0,0 4 0,-4 0-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink5.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-10-01T03:34:23.423"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'1756'16'0,"-953"-8"0,-182-4 0,-296 8 0,63 1 0,2094-13 0,-2206-12 0,-16 1 0,-248 10 0,1 1 0,-1 1 0,1 0 0,-1 1 0,23 5 0,-32-6 0,0 1 0,0-1 0,0 0 0,-1 1 0,1-1 0,-1 1 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,-1 1 0,1-1 0,-1 1 0,1 0 0,-1-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 4 0,-1 33 0,-7 43 0,-1 23 0,8-83 0,-1 0 0,-1 0 0,-1 0 0,-1-1 0,-1 0 0,-1 1 0,0-2 0,-2 1 0,-15 26 0,21-45 0,1 1 0,-1-1 0,1-1 0,-1 1 0,0 0 0,0-1 0,0 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1-1 0,-1 0 0,0 1 0,0-1 0,-4 0 0,-11 2 0,-1-1 0,-25 0 0,24-1 0,-783 0 0,375-5 0,-1322 4 0,1228-28 0,-39 1 0,-618 29 0,1000 11 0,11 1 0,106-13 0,-11-1 0,0 3 0,-135 23 0,116-10 0,-103 5 0,0 0 0,-58 29-1365,219-40-5461</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink6.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-10-01T03:34:25.169"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">250 1 24575,'-19'-1'0,"0"1"0,0 2 0,0 0 0,0 0 0,-19 7 0,31-7 0,1 0 0,0 1 0,-1 0 0,1 0 0,1 1 0,-1 0 0,0 0 0,1 0 0,0 0 0,0 1 0,0 0 0,0 0 0,1 1 0,0-1 0,0 1 0,0 0 0,-3 7 0,4-6 0,0-1 0,0 0 0,1 1 0,0 0 0,0 0 0,0-1 0,0 15 0,2-20 0,0 1 0,0-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,1-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1-1 0,-1 1 0,1 0 0,-1-1 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,0 1 0,-1-1 0,1-1 0,-1 1 0,1 0 0,2-1 0,4 1 0,-1-1 0,0 0 0,0-1 0,0 1 0,0-1 0,0-1 0,0 1 0,0-1 0,-1-1 0,13-7 0,-1-3 0,0 0 0,18-19 0,-3 2 0,-31 29 2,1-1 0,0 1 0,0 1 0,0-1 0,0 0-1,0 1 1,1-1 0,-1 1 0,0 0 0,1 0 0,-1 0 0,1 1-1,-1-1 1,1 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 1-1,7 1 1,4 2-50,-1 0 0,1 2 1,24 12-1,3 3-1165,-18-13-5613</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink7.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-10-01T03:34:26.391"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">601 1 24575,'-127'133'0,"6"6"0,-170 253 0,280-377 0,1 1 0,0 1 0,2-1 0,-11 30 0,18-45 0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 0 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 0 0,1 1 0,-1-1 0,0 0 0,1 0 0,0 1 0,-1-1 0,1 0 0,0 2 0,1-3 0,-1 1 0,0 0 0,0-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,0 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,2-1 0,11-3 0,0 0 0,-1-1 0,22-10 0,-28 11 0,182-98 0,-132 68 0,2 2 0,1 3 0,88-31 0,-140 58 0,0 0 0,0 1 0,0 0 0,0 0 0,0 0 0,0 1 0,0 1 0,11 1 0,-17-2 0,0 0 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,0-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,-1 1 0,-1 4 0,-1 0 0,0 0 0,0 0 0,-1 0 0,0-1 0,0 0 0,-1 0 0,1-1 0,-1 1 0,-1-1 0,1-1 0,-1 1 0,1-1 0,-1 0 0,0 0 0,-1-1 0,-10 4 0,-15 3 0,0-1 0,-59 8 0,76-14 0,-106 21-1365,73-13-5461</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink8.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-10-01T03:34:27.297"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">665 1 24575,'-109'56'0,"4"4"0,1 6 0,-151 125 0,243-180 0,1 0 0,1 0 0,0 1 0,0 0 0,-14 26 0,21-34 0,1 0 0,0 1 0,1-1 0,-1 1 0,1-1 0,0 1 0,0-1 0,0 1 0,1 0 0,-1 7 0,1-10 0,1 1 0,-1-1 0,1 1 0,0-1 0,0 0 0,-1 1 0,1-1 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0-1 0,-1 1 0,1-1 0,1 1 0,1 0 0,10 5 0,-1-1 0,1-1 0,0 0 0,1-1 0,-1 0 0,1-1 0,19 1 0,112 1 0,-110-5 0,91-1-1365,-81 0-5461</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink9.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-10-01T03:34:28.840"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">718 6 24575,'-1'-1'0,"1"1"0,-1-1 0,1 1 0,-1-1 0,0 1 0,1-1 0,-1 1 0,0 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,0 1 0,1-1 0,-1 1 0,0-1 0,1 0 0,-1 1 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1-1 0,1 1 0,-1 0 0,-19 29 0,4 3 0,1 0 0,2 1 0,1 1 0,-9 46 0,-18 149 0,36-211 0,-1 32 0,-7 44 0,10-90 0,0 0 0,0 0 0,0 0 0,-1 0 0,0 0 0,0 0 0,-1 0 0,1-1 0,-1 1 0,0-1 0,0 0 0,0 0 0,-7 6 0,8-8 0,0-1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,0 0 0,-4-3 0,-7-4 0,0-1 0,1 0 0,-14-14 0,17 15 0,-20-18 0,-1-1 0,-35-26 0,57 48 0,0-1 0,0 1 0,-1 1 0,0 0 0,1 0 0,-1 0 0,-1 1 0,1 1 0,0-1 0,-11 0 0,16 3 0,1 0 0,-1 0 0,1 0 0,0 1 0,-1-1 0,1 1 0,0 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,-2 3 0,-1 0 0,1 0 0,0 1 0,1-1 0,-1 1 0,1 0 0,0 1 0,-4 8 0,3-3 0,0 0 0,1 1 0,0-1 0,1 1 0,0 0 0,1 0 0,1 0 0,-1 16 0,3-26 0,-1 0 0,1-1 0,0 1 0,-1 0 0,1-1 0,1 1 0,-1-1 0,0 1 0,1-1 0,-1 1 0,1-1 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1-1 0,0 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1-1 0,1 1 0,4-1 0,12 3 0,1-1 0,0-1 0,25-2 0,-25 1 0,54-1-96,179-9-1173,-215 4-5557</inkml:trace>
+</inkml:ink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -33081,13 +40995,13 @@
       <c r="G6" s="87"/>
       <c r="H6" s="87"/>
       <c r="I6" s="87"/>
-      <c r="J6" s="150" t="s">
+      <c r="J6" s="154" t="s">
         <v>181</v>
       </c>
-      <c r="K6" s="150"/>
-      <c r="L6" s="150"/>
-      <c r="M6" s="150"/>
-      <c r="N6" s="150"/>
+      <c r="K6" s="154"/>
+      <c r="L6" s="154"/>
+      <c r="M6" s="154"/>
+      <c r="N6" s="154"/>
       <c r="O6" s="87"/>
       <c r="P6" s="87"/>
       <c r="Q6" s="87"/>
@@ -34485,16 +42399,16 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="17.25" thickBot="1">
-      <c r="B9" s="149" t="s">
+      <c r="B9" s="153" t="s">
         <v>189</v>
       </c>
-      <c r="C9" s="149"/>
-      <c r="D9" s="149"/>
-      <c r="E9" s="149"/>
-      <c r="F9" s="149"/>
-      <c r="G9" s="149"/>
-      <c r="H9" s="149"/>
-      <c r="I9" s="149"/>
+      <c r="C9" s="153"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="153"/>
+      <c r="F9" s="153"/>
+      <c r="G9" s="153"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="153"/>
     </row>
     <row r="10" spans="1:14" ht="17.25" thickBot="1">
       <c r="B10" s="102">
@@ -35345,13 +43259,13 @@
       <c r="D6" t="s">
         <v>39</v>
       </c>
-      <c r="T6" s="149" t="s">
+      <c r="T6" s="153" t="s">
         <v>57</v>
       </c>
-      <c r="U6" s="149"/>
-      <c r="V6" s="149"/>
-      <c r="W6" s="149"/>
-      <c r="X6" s="149"/>
+      <c r="U6" s="153"/>
+      <c r="V6" s="153"/>
+      <c r="W6" s="153"/>
+      <c r="X6" s="153"/>
     </row>
     <row r="7" spans="2:24">
       <c r="B7" t="s">
@@ -35711,13 +43625,13 @@
       </c>
     </row>
     <row r="22" spans="2:24">
-      <c r="T22" s="149" t="s">
+      <c r="T22" s="153" t="s">
         <v>58</v>
       </c>
-      <c r="U22" s="149"/>
-      <c r="V22" s="149"/>
-      <c r="W22" s="149"/>
-      <c r="X22" s="149"/>
+      <c r="U22" s="153"/>
+      <c r="V22" s="153"/>
+      <c r="W22" s="153"/>
+      <c r="X22" s="153"/>
     </row>
     <row r="23" spans="2:24">
       <c r="R23" s="14" t="s">
@@ -35834,13 +43748,13 @@
       </c>
     </row>
     <row r="31" spans="2:24">
-      <c r="T31" s="149" t="s">
+      <c r="T31" s="153" t="s">
         <v>59</v>
       </c>
-      <c r="U31" s="149"/>
-      <c r="V31" s="149"/>
-      <c r="W31" s="149"/>
-      <c r="X31" s="149"/>
+      <c r="U31" s="153"/>
+      <c r="V31" s="153"/>
+      <c r="W31" s="153"/>
+      <c r="X31" s="153"/>
     </row>
     <row r="32" spans="2:24">
       <c r="R32" s="14" t="s">
@@ -37028,11 +44942,11 @@
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
-      <c r="T12" s="151" t="s">
+      <c r="T12" s="155" t="s">
         <v>202</v>
       </c>
-      <c r="U12" s="151"/>
-      <c r="V12" s="151"/>
+      <c r="U12" s="155"/>
+      <c r="V12" s="155"/>
       <c r="W12" s="8"/>
       <c r="X12" s="8"/>
       <c r="Y12" s="8"/>
@@ -38606,7 +46520,7 @@
       </c>
     </row>
     <row r="68" spans="2:13">
-      <c r="B68" s="149" t="s">
+      <c r="B68" s="153" t="s">
         <v>267</v>
       </c>
       <c r="C68" s="135" t="s">
@@ -38626,7 +46540,7 @@
       </c>
     </row>
     <row r="69" spans="2:13">
-      <c r="B69" s="149"/>
+      <c r="B69" s="153"/>
       <c r="C69" t="s">
         <v>269</v>
       </c>
@@ -40848,13 +48762,13 @@
       </c>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="149" t="s">
+      <c r="B7" s="153" t="s">
         <v>324</v>
       </c>
       <c r="C7" s="135" t="s">
         <v>331</v>
       </c>
-      <c r="D7" s="152" t="s">
+      <c r="D7" s="156" t="s">
         <v>333</v>
       </c>
       <c r="E7" s="135">
@@ -40862,11 +48776,11 @@
       </c>
     </row>
     <row r="8" spans="2:12" ht="17.25" thickBot="1">
-      <c r="B8" s="149"/>
+      <c r="B8" s="153"/>
       <c r="C8" t="s">
         <v>332</v>
       </c>
-      <c r="D8" s="149"/>
+      <c r="D8" s="153"/>
       <c r="E8">
         <v>70</v>
       </c>
@@ -41020,23 +48934,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7086D54B-A00D-446E-B1A7-A8C1A731613A}">
   <dimension ref="B13:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="13" spans="2:5">
-      <c r="B13" s="153" t="s">
+      <c r="B13" s="149" t="s">
         <v>352</v>
       </c>
-      <c r="C13" s="153" t="s">
+      <c r="C13" s="149" t="s">
         <v>353</v>
       </c>
-      <c r="D13" s="153" t="s">
+      <c r="D13" s="149" t="s">
         <v>354</v>
       </c>
-      <c r="E13" s="154" t="s">
+      <c r="E13" s="150" t="s">
         <v>355</v>
       </c>
     </row>
@@ -41050,7 +48964,7 @@
       <c r="D14" s="98">
         <v>0.1</v>
       </c>
-      <c r="E14" s="155">
+      <c r="E14" s="151">
         <v>1.5</v>
       </c>
     </row>
@@ -41064,7 +48978,7 @@
       <c r="D15" s="98">
         <v>1</v>
       </c>
-      <c r="E15" s="155">
+      <c r="E15" s="151">
         <v>2.8</v>
       </c>
     </row>
@@ -41078,7 +48992,7 @@
       <c r="D16" s="98">
         <v>1.9</v>
       </c>
-      <c r="E16" s="155">
+      <c r="E16" s="151">
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -41092,7 +49006,7 @@
       <c r="D17" s="98">
         <v>2.8</v>
       </c>
-      <c r="E17" s="155">
+      <c r="E17" s="151">
         <v>5.4</v>
       </c>
     </row>
@@ -41106,7 +49020,7 @@
       <c r="D18" s="98">
         <v>3.7</v>
       </c>
-      <c r="E18" s="155">
+      <c r="E18" s="151">
         <v>6.7</v>
       </c>
     </row>
@@ -41120,27 +49034,27 @@
       <c r="D19" s="98">
         <v>4.5999999999999996</v>
       </c>
-      <c r="E19" s="155">
+      <c r="E19" s="151">
         <v>8</v>
       </c>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="156" t="s">
+      <c r="B21" s="152" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="156" t="s">
+      <c r="C21" s="152" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="156" t="s">
+      <c r="D21" s="152" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="156" t="s">
+      <c r="E21" s="152" t="s">
         <v>356</v>
       </c>
-      <c r="F21" s="156" t="s">
+      <c r="F21" s="152" t="s">
         <v>75</v>
       </c>
-      <c r="G21" s="156" t="s">
+      <c r="G21" s="152" t="s">
         <v>76</v>
       </c>
     </row>
@@ -41174,14 +49088,106 @@
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28C63C69-5C81-485E-AC82-42BD329F7B60}">
-  <dimension ref="A1"/>
+  <dimension ref="B3:M103"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="J101" sqref="J101"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:7" s="26" customFormat="1">
+      <c r="B3" s="148" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="G4" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="G5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="G6" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" ht="20.25">
+      <c r="C26" s="145" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" s="26" customFormat="1">
+      <c r="B28" s="26" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="46" spans="3:12">
+      <c r="C46" t="s">
+        <v>362</v>
+      </c>
+      <c r="F46" t="s">
+        <v>364</v>
+      </c>
+      <c r="I46" t="s">
+        <v>366</v>
+      </c>
+      <c r="L46" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="47" spans="3:12">
+      <c r="C47" t="s">
+        <v>363</v>
+      </c>
+      <c r="F47" t="s">
+        <v>365</v>
+      </c>
+      <c r="I47">
+        <v>100</v>
+      </c>
+      <c r="L47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" s="26" customFormat="1">
+      <c r="B69" s="26" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="83" spans="2:13">
+      <c r="E83" s="21" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="84" spans="2:13">
+      <c r="M84" s="21" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="86" spans="2:13" s="26" customFormat="1">
+      <c r="B86" s="26" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" s="26" customFormat="1">
+      <c r="B103" s="26" t="s">
+        <v>366</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -41189,12 +49195,445 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453FBB9A-6213-4681-A84C-1868BB2A14A8}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34BAD994-83D6-4AFF-84D4-D8AAB2CFE884}">
+  <dimension ref="A1:AJ48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="43" width="6.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36">
+      <c r="A1" s="26"/>
+      <c r="B1" s="26" t="s">
+        <v>414</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="26"/>
+      <c r="AJ1" s="26"/>
+    </row>
+    <row r="4" spans="1:36">
+      <c r="B4" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36">
+      <c r="B5" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36">
+      <c r="B6" s="161" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36">
+      <c r="B7" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36">
+      <c r="B8" s="161" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36">
+      <c r="B9" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36">
+      <c r="B10" s="161" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36">
+      <c r="B11" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36">
+      <c r="B12" s="161" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36">
+      <c r="B13" s="161" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36">
+      <c r="B14" s="161" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36">
+      <c r="B15" s="161" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36">
+      <c r="B16" s="161" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="17" spans="2:36">
+      <c r="B17" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="19" spans="2:36">
+      <c r="B19" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="20" spans="2:36">
+      <c r="B20" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="21" spans="2:36">
+      <c r="B21" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="22" spans="2:36">
+      <c r="B22" t="s">
+        <v>396</v>
+      </c>
+      <c r="R22" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="23" spans="2:36">
+      <c r="B23" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="25" spans="2:36">
+      <c r="B25" s="160" t="s">
+        <v>393</v>
+      </c>
+      <c r="AB25" s="13"/>
+      <c r="AC25" s="13"/>
+      <c r="AD25" s="13"/>
+    </row>
+    <row r="26" spans="2:36">
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="P26" t="s">
+        <v>392</v>
+      </c>
+      <c r="S26">
+        <v>27</v>
+      </c>
+      <c r="AB26" s="13"/>
+      <c r="AC26" s="13"/>
+      <c r="AD26" s="13"/>
+    </row>
+    <row r="27" spans="2:36">
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="13"/>
+      <c r="AB27" s="13"/>
+      <c r="AC27" s="13"/>
+      <c r="AD27" s="13"/>
+    </row>
+    <row r="28" spans="2:36">
+      <c r="E28" t="s">
+        <v>391</v>
+      </c>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" t="s">
+        <v>389</v>
+      </c>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="Y28" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="29" spans="2:36">
+      <c r="J29" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>390</v>
+      </c>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+      <c r="V29" t="s">
+        <v>389</v>
+      </c>
+      <c r="Y29" s="26"/>
+      <c r="AC29" t="s">
+        <v>389</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="30" spans="2:36">
+      <c r="J30" s="26"/>
+      <c r="O30" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q30" s="26"/>
+      <c r="W30" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y30" s="26"/>
+      <c r="AB30" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE30" s="157"/>
+    </row>
+    <row r="31" spans="2:36">
+      <c r="J31" s="26"/>
+      <c r="Q31" s="26"/>
+      <c r="Y31" s="26"/>
+      <c r="AE31" s="157"/>
+      <c r="AG31" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="32" spans="2:36">
+      <c r="J32" s="26"/>
+      <c r="O32" s="159"/>
+      <c r="Q32" s="26"/>
+      <c r="W32" s="159"/>
+      <c r="Y32" s="26"/>
+      <c r="AB32" s="159"/>
+      <c r="AE32" s="157"/>
+      <c r="AJ32" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="33" spans="8:36">
+      <c r="J33" s="26"/>
+      <c r="O33" s="159"/>
+      <c r="Q33" s="26"/>
+      <c r="W33" s="159"/>
+      <c r="Y33" s="26"/>
+      <c r="AB33" s="159"/>
+      <c r="AE33" s="157"/>
+      <c r="AG33" s="158"/>
+    </row>
+    <row r="34" spans="8:36">
+      <c r="J34" s="26"/>
+      <c r="O34" s="159"/>
+      <c r="Q34" s="26"/>
+      <c r="W34" s="159"/>
+      <c r="Y34" s="26"/>
+      <c r="AB34" s="159"/>
+      <c r="AE34" s="157"/>
+      <c r="AG34" s="158"/>
+      <c r="AJ34" s="158"/>
+    </row>
+    <row r="35" spans="8:36">
+      <c r="J35" s="26"/>
+      <c r="O35" s="159"/>
+      <c r="Q35" s="26"/>
+      <c r="W35" s="159"/>
+      <c r="Y35" s="26"/>
+      <c r="AB35" s="159"/>
+      <c r="AE35" s="157"/>
+      <c r="AG35" s="158"/>
+      <c r="AJ35" s="158"/>
+    </row>
+    <row r="36" spans="8:36">
+      <c r="J36" s="26"/>
+      <c r="O36" s="159"/>
+      <c r="Q36" s="26"/>
+      <c r="W36" s="159"/>
+      <c r="Y36" s="26"/>
+      <c r="AB36" s="159"/>
+      <c r="AE36" s="157"/>
+      <c r="AG36" s="158"/>
+    </row>
+    <row r="37" spans="8:36">
+      <c r="J37" s="26"/>
+      <c r="O37" s="159"/>
+      <c r="Q37" s="26"/>
+      <c r="W37" s="159"/>
+      <c r="Y37" s="26"/>
+      <c r="AB37" s="159"/>
+      <c r="AE37" s="157"/>
+      <c r="AG37" s="158"/>
+    </row>
+    <row r="38" spans="8:36">
+      <c r="J38" s="26"/>
+      <c r="Q38" s="26"/>
+      <c r="AE38" s="157"/>
+      <c r="AG38" s="158"/>
+    </row>
+    <row r="39" spans="8:36">
+      <c r="H39" t="s">
+        <v>385</v>
+      </c>
+      <c r="S39" t="s">
+        <v>384</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>384</v>
+      </c>
+      <c r="AE39" s="157"/>
+    </row>
+    <row r="40" spans="8:36">
+      <c r="H40" t="s">
+        <v>384</v>
+      </c>
+      <c r="J40">
+        <v>32</v>
+      </c>
+      <c r="Q40">
+        <v>32</v>
+      </c>
+      <c r="S40" t="s">
+        <v>383</v>
+      </c>
+      <c r="Y40">
+        <v>64</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>382</v>
+      </c>
+      <c r="AE40" s="157"/>
+      <c r="AG40">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="8:36">
+      <c r="H41" t="s">
+        <v>381</v>
+      </c>
+      <c r="O41" t="s">
+        <v>380</v>
+      </c>
+      <c r="W41" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="42" spans="8:36">
+      <c r="K42" t="s">
+        <v>375</v>
+      </c>
+      <c r="O42" t="s">
+        <v>378</v>
+      </c>
+      <c r="W42" t="s">
+        <v>377</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="43" spans="8:36">
+      <c r="K43">
+        <v>896</v>
+      </c>
+      <c r="P43" t="s">
+        <v>375</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>375</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>375</v>
+      </c>
+      <c r="AI43" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="44" spans="8:36">
+      <c r="P44">
+        <v>9248</v>
+      </c>
+      <c r="AC44">
+        <v>18496</v>
+      </c>
+      <c r="AF44">
+        <v>1183808</v>
+      </c>
+      <c r="AI44">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="8:36">
+      <c r="W47" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="48" spans="8:36">
+      <c r="W48">
+        <v>1212513</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/수업교안.xlsx
+++ b/수업교안.xlsx
@@ -8,48 +8,50 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\YOLO\YOLO_bootcamp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70486614-2228-4C75-A30F-20F07B9DE6C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06AFEB85-D37A-4EB6-8FFD-D3403144F9EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="28" activeTab="36" xr2:uid="{F2F141D0-23C7-4AE5-87B1-116F8BEFD9C0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F2F141D0-23C7-4AE5-87B1-116F8BEFD9C0}"/>
   </bookViews>
   <sheets>
-    <sheet name="연관분석" sheetId="1" r:id="rId1"/>
-    <sheet name="퍼셉트론" sheetId="3" r:id="rId2"/>
-    <sheet name="계단함수" sheetId="4" r:id="rId3"/>
-    <sheet name="멀티레이어퍼셉트론" sheetId="5" r:id="rId4"/>
-    <sheet name="자연상수" sheetId="6" r:id="rId5"/>
-    <sheet name="확률" sheetId="2" r:id="rId6"/>
-    <sheet name="상관회귀" sheetId="7" r:id="rId7"/>
-    <sheet name="데이터표현" sheetId="8" r:id="rId8"/>
-    <sheet name="SQL" sheetId="10" r:id="rId9"/>
-    <sheet name="상관" sheetId="9" r:id="rId10"/>
-    <sheet name="모델평가" sheetId="11" r:id="rId11"/>
-    <sheet name="이미지정규화" sheetId="12" r:id="rId12"/>
-    <sheet name="이미지좌표" sheetId="13" r:id="rId13"/>
-    <sheet name="연산자" sheetId="14" r:id="rId14"/>
-    <sheet name="데이터분석기초_정규화표준화" sheetId="15" r:id="rId15"/>
-    <sheet name="영상히스토그램" sheetId="16" r:id="rId16"/>
-    <sheet name="정규분포" sheetId="17" r:id="rId17"/>
-    <sheet name="영상처리" sheetId="18" r:id="rId18"/>
-    <sheet name="Conv_합성곱" sheetId="19" r:id="rId19"/>
-    <sheet name="3차원컨벌루션연산" sheetId="21" r:id="rId20"/>
-    <sheet name="ML개념_회귀" sheetId="22" r:id="rId21"/>
-    <sheet name="불순도_지니지수_엔트로피지수" sheetId="23" r:id="rId22"/>
-    <sheet name="활성화함수" sheetId="25" r:id="rId23"/>
-    <sheet name="모델설계1" sheetId="24" r:id="rId24"/>
-    <sheet name="모델설계2" sheetId="26" r:id="rId25"/>
-    <sheet name="모델설계3" sheetId="27" r:id="rId26"/>
-    <sheet name="Lenet-5_AlexNet" sheetId="28" r:id="rId27"/>
-    <sheet name="VGGNet_GoogleNet" sheetId="29" r:id="rId28"/>
-    <sheet name="ResNet" sheetId="30" r:id="rId29"/>
-    <sheet name="객체탐지의평가지표" sheetId="31" r:id="rId30"/>
-    <sheet name="SVM" sheetId="32" r:id="rId31"/>
-    <sheet name="앙상블" sheetId="33" r:id="rId32"/>
-    <sheet name="YOLO" sheetId="34" r:id="rId33"/>
-    <sheet name="다중선형회귀" sheetId="35" r:id="rId34"/>
-    <sheet name="순환신경망" sheetId="36" r:id="rId35"/>
-    <sheet name="Sheet3" sheetId="37" r:id="rId36"/>
+    <sheet name="FAST_SIFT_SURF_ORB" sheetId="40" r:id="rId1"/>
+    <sheet name="연관분석" sheetId="1" r:id="rId2"/>
+    <sheet name="퍼셉트론" sheetId="3" r:id="rId3"/>
+    <sheet name="계단함수" sheetId="4" r:id="rId4"/>
+    <sheet name="멀티레이어퍼셉트론" sheetId="5" r:id="rId5"/>
+    <sheet name="자연상수" sheetId="6" r:id="rId6"/>
+    <sheet name="확률" sheetId="2" r:id="rId7"/>
+    <sheet name="상관회귀" sheetId="7" r:id="rId8"/>
+    <sheet name="데이터표현" sheetId="8" r:id="rId9"/>
+    <sheet name="SQL" sheetId="10" r:id="rId10"/>
+    <sheet name="상관" sheetId="9" r:id="rId11"/>
+    <sheet name="모델평가" sheetId="11" r:id="rId12"/>
+    <sheet name="이미지정규화" sheetId="12" r:id="rId13"/>
+    <sheet name="이미지좌표" sheetId="13" r:id="rId14"/>
+    <sheet name="연산자" sheetId="14" r:id="rId15"/>
+    <sheet name="데이터분석기초_정규화표준화" sheetId="15" r:id="rId16"/>
+    <sheet name="영상히스토그램" sheetId="16" r:id="rId17"/>
+    <sheet name="정규분포" sheetId="17" r:id="rId18"/>
+    <sheet name="영상처리" sheetId="18" r:id="rId19"/>
+    <sheet name="Conv_합성곱" sheetId="19" r:id="rId20"/>
+    <sheet name="3차원컨벌루션연산" sheetId="21" r:id="rId21"/>
+    <sheet name="ML개념_회귀" sheetId="22" r:id="rId22"/>
+    <sheet name="불순도_지니지수_엔트로피지수" sheetId="23" r:id="rId23"/>
+    <sheet name="활성화함수" sheetId="25" r:id="rId24"/>
+    <sheet name="모델설계1" sheetId="24" r:id="rId25"/>
+    <sheet name="모델설계2" sheetId="26" r:id="rId26"/>
+    <sheet name="모델설계3" sheetId="27" r:id="rId27"/>
+    <sheet name="Lenet-5_AlexNet" sheetId="28" r:id="rId28"/>
+    <sheet name="VGGNet_GoogleNet" sheetId="29" r:id="rId29"/>
+    <sheet name="ResNet" sheetId="30" r:id="rId30"/>
+    <sheet name="객체탐지의평가지표" sheetId="31" r:id="rId31"/>
+    <sheet name="SVM" sheetId="32" r:id="rId32"/>
+    <sheet name="앙상블" sheetId="33" r:id="rId33"/>
+    <sheet name="YOLO" sheetId="34" r:id="rId34"/>
+    <sheet name="다중선형회귀" sheetId="35" r:id="rId35"/>
+    <sheet name="순환신경망" sheetId="36" r:id="rId36"/>
     <sheet name="ImageDataGenerator" sheetId="38" r:id="rId37"/>
+    <sheet name="배치정규화" sheetId="37" r:id="rId38"/>
+    <sheet name="가중치초기화" sheetId="39" r:id="rId39"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -70,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="425">
   <si>
     <t>거래번호</t>
   </si>
@@ -1763,9 +1765,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>)</t>
-  </si>
-  <si>
     <t>최종 가중치</t>
   </si>
   <si>
@@ -1889,13 +1888,58 @@
   <si>
     <t>ImageDataGenerator</t>
   </si>
+  <si>
+    <t>배치 정규화 수동 계산</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>합</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>배치정규화</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[배치정규화 결과]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>가중치 초기화</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>난수는 가우시안 분포에서 추출하거나</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>균일(균등 ; uniform)에서 추출</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>신경망 가중치는 난수를 생성하여 초기화 해야함</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[참고자료] 분포의 종류</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기화 종류</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기화 코드</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -2796,7 +2840,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3256,18 +3300,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -3281,6 +3313,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -29329,6 +29382,737 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>67445</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38198</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E08ECE70-E712-95D5-2E1C-C50DE90C651B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4305300" y="5200650"/>
+          <a:ext cx="5515745" cy="704948"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>439078</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38592</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86A2611D-2EB3-A042-AD0F-0EF14CE17F35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4229100" y="1543050"/>
+          <a:ext cx="6649378" cy="3524742"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>38374</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>95973</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC301506-D9DA-FF04-0D4C-FA4E88A54D22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11258550" y="571500"/>
+          <a:ext cx="1962424" cy="5182323"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing23.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>230443</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>162376</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64F7D69F-89C4-D1D1-32B6-7A666365E69B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4171950" y="704850"/>
+          <a:ext cx="13203493" cy="3229426"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B811F50-18FA-0A9C-D026-86FBBBAB2573}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="790575" y="4133850"/>
+          <a:ext cx="5619750" cy="4667250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40786B45-DB88-7A6B-81AB-C628A5AE0A60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6619875" y="4057650"/>
+          <a:ext cx="5619750" cy="4533900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDE8DEB5-58ED-988C-26CF-8A09AB10248A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="714375" y="9067800"/>
+          <a:ext cx="5343525" cy="8601075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>100853</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>186578</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>6723</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C696490C-0164-E0BF-0A19-B2A19B40CFE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6252882" y="9222441"/>
+          <a:ext cx="5554196" cy="7178488"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>33617</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>81242</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>147358</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6023609F-614D-D824-14EE-4EF1B69BD1AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="717176" y="18489706"/>
+          <a:ext cx="5516095" cy="8484534"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>33618</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>201706</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>605118</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2EC08D9-32A6-1663-BDDE-06A7ED1BC8E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6869206" y="18512118"/>
+          <a:ext cx="5356412" cy="7855323"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>470646</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>463363</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="그림 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1276C478-DF40-F61C-8A30-12C2916D2108}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12774705" y="18523323"/>
+          <a:ext cx="6144746" cy="6047255"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>44823</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>33619</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>439897</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>144636</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="그림 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0AFB070-88F4-9603-BA80-F43E0D54ED51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="728382" y="27712148"/>
+          <a:ext cx="4496427" cy="4582164"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>145676</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>112060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>455014</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>13498</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="그림 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8195F0F3-9D92-5189-7F39-97A35E3E9F07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5614147" y="27790589"/>
+          <a:ext cx="4410691" cy="4372585"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -31626,169 +32410,169 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78561242-D1F0-4C34-8C41-49D71FE816EB}">
-  <dimension ref="B1:F19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22ACB713-F053-4A2B-A4F2-0F2AF97B4ADB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F78CEA8-5975-4C84-8FED-21999E477B5E}">
+  <dimension ref="D4:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="25.5" customWidth="1"/>
-    <col min="3" max="3" width="26.625" customWidth="1"/>
+    <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="17.25" thickBot="1">
-      <c r="F1">
-        <f>COUNT(B3:B7)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B4" s="3">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B5" s="3">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B6" s="3">
-        <v>4</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B7" s="6">
-        <v>5</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11">
-        <f>4/F1</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6">
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12">
-        <f>2/F1</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
+    <row r="4" spans="4:14">
+      <c r="F4" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="4:14">
+      <c r="F5" s="11"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" spans="4:14">
+      <c r="F6" s="11"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" spans="4:14">
+      <c r="F7" s="11"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+    </row>
+    <row r="8" spans="4:14">
+      <c r="F8" s="11"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+    </row>
+    <row r="9" spans="4:14">
+      <c r="F9" s="11"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+    </row>
+    <row r="10" spans="4:14">
+      <c r="D10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="4:14">
+      <c r="D11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="4:14">
+      <c r="D12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="4:14">
       <c r="F14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15">
-        <v>0.5</v>
-      </c>
-      <c r="F15">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17">
-        <f>D15/F12</f>
-        <v>1.25</v>
-      </c>
-      <c r="F17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" t="s">
-        <v>35</v>
+        <v>125</v>
+      </c>
+      <c r="G14" t="s">
+        <v>126</v>
+      </c>
+      <c r="J14" t="s">
+        <v>127</v>
+      </c>
+      <c r="K14" t="s">
+        <v>128</v>
+      </c>
+      <c r="L14" t="s">
+        <v>136</v>
+      </c>
+      <c r="M14" t="s">
+        <v>130</v>
+      </c>
+      <c r="N14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="4:14">
+      <c r="F15" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" t="s">
+        <v>133</v>
+      </c>
+      <c r="J15" t="s">
+        <v>140</v>
+      </c>
+      <c r="K15" t="s">
+        <v>141</v>
+      </c>
+      <c r="L15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="4:14">
+      <c r="F16" t="s">
+        <v>138</v>
+      </c>
+      <c r="G16" t="s">
+        <v>139</v>
+      </c>
+      <c r="J16" t="s">
+        <v>134</v>
+      </c>
+      <c r="K16" t="s">
+        <v>135</v>
+      </c>
+      <c r="L16" t="s">
+        <v>131</v>
+      </c>
+      <c r="M16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="6:8">
+      <c r="F18" t="s">
+        <v>143</v>
+      </c>
+      <c r="H18" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -31798,7 +32582,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{094C0037-AC5B-487B-BCF8-999965EA532C}">
   <dimension ref="A1:P23"/>
   <sheetViews>
@@ -32232,7 +33016,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A34552-9CD1-44F6-A66C-C34812AE51DA}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -32247,7 +33031,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E34BE1-F17A-429A-A1FB-C95709826963}">
   <dimension ref="A1:CB175"/>
   <sheetViews>
@@ -38725,7 +39509,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93466E87-9944-42F7-B42A-47151ECF8E57}">
   <dimension ref="A1:I10"/>
   <sheetViews>
@@ -38804,7 +39588,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A00DA8E-1CAD-4BFC-9890-724FC2DEB2FF}">
   <dimension ref="B2:P10"/>
   <sheetViews>
@@ -38998,7 +39782,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845E5515-611A-4E1C-A98C-8755B7A2B786}">
   <dimension ref="B3:V21"/>
   <sheetViews>
@@ -39427,7 +40211,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34A167A-8E8C-4227-A7E0-D9AB84765372}">
   <dimension ref="B3:V14"/>
   <sheetViews>
@@ -39874,7 +40658,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ECB29AE-078A-4C14-9618-8456A98936E1}">
   <dimension ref="A1:C62"/>
   <sheetViews>
@@ -40699,7 +41483,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE482B99-A4AA-4732-9E37-C6A85EC41F2A}">
   <dimension ref="A2:BJ22"/>
   <sheetViews>
@@ -40995,13 +41779,13 @@
       <c r="G6" s="87"/>
       <c r="H6" s="87"/>
       <c r="I6" s="87"/>
-      <c r="J6" s="154" t="s">
+      <c r="J6" s="159" t="s">
         <v>181</v>
       </c>
-      <c r="K6" s="154"/>
-      <c r="L6" s="154"/>
-      <c r="M6" s="154"/>
-      <c r="N6" s="154"/>
+      <c r="K6" s="159"/>
+      <c r="L6" s="159"/>
+      <c r="M6" s="159"/>
+      <c r="N6" s="159"/>
       <c r="O6" s="87"/>
       <c r="P6" s="87"/>
       <c r="Q6" s="87"/>
@@ -42365,7 +43149,180 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78561242-D1F0-4C34-8C41-49D71FE816EB}">
+  <dimension ref="B1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
+    <col min="3" max="3" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="17.25" thickBot="1">
+      <c r="F1">
+        <f>COUNT(B3:B7)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B7" s="6">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11">
+        <f>4/F1</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12">
+        <f>2/F1</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15">
+        <v>0.5</v>
+      </c>
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17">
+        <f>D15/F12</f>
+        <v>1.25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59BC8B15-9520-4675-B243-F332C1F3E3FC}">
   <dimension ref="A1:N78"/>
   <sheetViews>
@@ -42399,16 +43356,16 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="17.25" thickBot="1">
-      <c r="B9" s="153" t="s">
+      <c r="B9" s="158" t="s">
         <v>189</v>
       </c>
-      <c r="C9" s="153"/>
-      <c r="D9" s="153"/>
-      <c r="E9" s="153"/>
-      <c r="F9" s="153"/>
-      <c r="G9" s="153"/>
-      <c r="H9" s="153"/>
-      <c r="I9" s="153"/>
+      <c r="C9" s="158"/>
+      <c r="D9" s="158"/>
+      <c r="E9" s="158"/>
+      <c r="F9" s="158"/>
+      <c r="G9" s="158"/>
+      <c r="H9" s="158"/>
+      <c r="I9" s="158"/>
     </row>
     <row r="10" spans="1:14" ht="17.25" thickBot="1">
       <c r="B10" s="102">
@@ -43186,700 +44143,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C67FDC23-06BC-4968-81B0-E1B757CF44DC}">
-  <dimension ref="B2:X37"/>
-  <sheetViews>
-    <sheetView topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="S35" sqref="S35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="20" max="20" width="9" style="9"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:24">
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="2:24">
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="2:24">
-      <c r="B4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="2:24">
-      <c r="B5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="2:24">
-      <c r="B6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" t="s">
-        <v>39</v>
-      </c>
-      <c r="T6" s="153" t="s">
-        <v>57</v>
-      </c>
-      <c r="U6" s="153"/>
-      <c r="V6" s="153"/>
-      <c r="W6" s="153"/>
-      <c r="X6" s="153"/>
-    </row>
-    <row r="7" spans="2:24">
-      <c r="B7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" t="s">
-        <v>39</v>
-      </c>
-      <c r="R7" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="S7" s="14">
-        <v>-0.5</v>
-      </c>
-      <c r="U7">
-        <f>$S$7*$G13</f>
-        <v>-0.5</v>
-      </c>
-      <c r="V7">
-        <f>$S$7*$G13</f>
-        <v>-0.5</v>
-      </c>
-      <c r="W7">
-        <f>$S$7*$G13</f>
-        <v>-0.5</v>
-      </c>
-      <c r="X7">
-        <f>$S$7*$G13</f>
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:24">
-      <c r="R8" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="S8" s="14">
-        <v>1</v>
-      </c>
-      <c r="U8">
-        <f>$S$8*$H13</f>
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <f>$S$8*$H14</f>
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <f>$S$8*$H15</f>
-        <v>1</v>
-      </c>
-      <c r="X8">
-        <f>$S$8*$H16</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:24">
-      <c r="B9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" t="s">
-        <v>42</v>
-      </c>
-      <c r="R9" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="S9" s="14">
-        <v>1</v>
-      </c>
-      <c r="U9">
-        <f>$S$9*$I$13</f>
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <f>$S$9*$I14</f>
-        <v>1</v>
-      </c>
-      <c r="W9">
-        <f>$S$9*$I15</f>
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <f>$S$9*$I16</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:24">
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>36</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="T10" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="U10">
-        <f>SUM(U7:U9)</f>
-        <v>-0.5</v>
-      </c>
-      <c r="V10">
-        <f t="shared" ref="V10:X10" si="0">SUM(V7:V9)</f>
-        <v>0.5</v>
-      </c>
-      <c r="W10">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="X10">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:24">
-      <c r="B11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" t="s">
-        <v>38</v>
-      </c>
-      <c r="M11" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:24">
-      <c r="B12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="U12" t="b">
-        <f>IF(U10&gt;=0,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="V12" t="b">
-        <f>IF(V10&gt;=0,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="W12" t="b">
-        <f>IF(W10&gt;=0,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="X12" t="b">
-        <f>IF(X10&gt;=0,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:24">
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="11">
-        <v>1</v>
-      </c>
-      <c r="H13" s="11">
-        <v>0</v>
-      </c>
-      <c r="I13" s="11">
-        <v>0</v>
-      </c>
-      <c r="J13" s="17">
-        <v>0</v>
-      </c>
-      <c r="K13" s="17">
-        <v>0</v>
-      </c>
-      <c r="L13" s="17">
-        <v>0</v>
-      </c>
-      <c r="P13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="2:24">
-      <c r="B14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="11">
-        <v>1</v>
-      </c>
-      <c r="H14" s="11">
-        <v>0</v>
-      </c>
-      <c r="I14" s="11">
-        <v>1</v>
-      </c>
-      <c r="J14" s="16">
-        <v>1</v>
-      </c>
-      <c r="K14" s="17">
-        <v>0</v>
-      </c>
-      <c r="L14" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:24">
-      <c r="G15" s="11">
-        <v>1</v>
-      </c>
-      <c r="H15" s="11">
-        <v>1</v>
-      </c>
-      <c r="I15" s="11">
-        <v>0</v>
-      </c>
-      <c r="J15" s="16">
-        <v>1</v>
-      </c>
-      <c r="K15" s="17">
-        <v>0</v>
-      </c>
-      <c r="L15" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:24">
-      <c r="B16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" s="11">
-        <v>1</v>
-      </c>
-      <c r="H16" s="11">
-        <v>1</v>
-      </c>
-      <c r="I16" s="11">
-        <v>1</v>
-      </c>
-      <c r="J16" s="16">
-        <v>1</v>
-      </c>
-      <c r="K16" s="16">
-        <v>1</v>
-      </c>
-      <c r="L16" s="17">
-        <v>0</v>
-      </c>
-      <c r="T16" s="15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="2:24">
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>36</v>
-      </c>
-      <c r="M17" s="12">
-        <v>0</v>
-      </c>
-      <c r="P17" t="s">
-        <v>49</v>
-      </c>
-      <c r="T17" s="15">
-        <f>M11*S7+M17*S8+M24*S9</f>
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:24">
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="2:24">
-      <c r="B19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="2:24">
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="2:24">
-      <c r="B21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="2:24">
-      <c r="T22" s="153" t="s">
-        <v>58</v>
-      </c>
-      <c r="U22" s="153"/>
-      <c r="V22" s="153"/>
-      <c r="W22" s="153"/>
-      <c r="X22" s="153"/>
-    </row>
-    <row r="23" spans="2:24">
-      <c r="R23" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="S23" s="14">
-        <v>-2</v>
-      </c>
-      <c r="U23">
-        <f>$S$23*$G$13</f>
-        <v>-2</v>
-      </c>
-      <c r="V23">
-        <f t="shared" ref="V23:X23" si="1">$S$23*$G$13</f>
-        <v>-2</v>
-      </c>
-      <c r="W23">
-        <f t="shared" si="1"/>
-        <v>-2</v>
-      </c>
-      <c r="X23">
-        <f t="shared" si="1"/>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:24">
-      <c r="M24" s="12">
-        <v>0</v>
-      </c>
-      <c r="R24" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="S24" s="14">
-        <v>1</v>
-      </c>
-      <c r="U24">
-        <f>$S$24*$H13</f>
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <f>$S$24*$H14</f>
-        <v>0</v>
-      </c>
-      <c r="W24">
-        <f>$S$24*$H15</f>
-        <v>1</v>
-      </c>
-      <c r="X24">
-        <f>$S$24*$H16</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:24">
-      <c r="R25" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="S25" s="14">
-        <v>1</v>
-      </c>
-      <c r="U25">
-        <f>$S$25*$I13</f>
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <f>$S$25*$I14</f>
-        <v>1</v>
-      </c>
-      <c r="W25">
-        <f>$S$25*$I15</f>
-        <v>0</v>
-      </c>
-      <c r="X25">
-        <f>$S$25*$I16</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:24">
-      <c r="T26" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="U26">
-        <f>SUM(U23:U25)</f>
-        <v>-2</v>
-      </c>
-      <c r="V26">
-        <f t="shared" ref="V26" si="2">SUM(V23:V25)</f>
-        <v>-1</v>
-      </c>
-      <c r="W26">
-        <f t="shared" ref="W26" si="3">SUM(W23:W25)</f>
-        <v>-1</v>
-      </c>
-      <c r="X26">
-        <f t="shared" ref="X26" si="4">SUM(X23:X25)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:24">
-      <c r="U28" t="b">
-        <f>IF(U26&gt;=0,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="V28" t="b">
-        <f>IF(V26&gt;=0,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="W28" t="b">
-        <f>IF(W26&gt;=0,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="X28" t="b">
-        <f>IF(X26&gt;=0,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:24">
-      <c r="T31" s="153" t="s">
-        <v>59</v>
-      </c>
-      <c r="U31" s="153"/>
-      <c r="V31" s="153"/>
-      <c r="W31" s="153"/>
-      <c r="X31" s="153"/>
-    </row>
-    <row r="32" spans="2:24">
-      <c r="R32" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="S32" s="14">
-        <v>-0.2</v>
-      </c>
-      <c r="U32">
-        <f>$S$32*$G$13</f>
-        <v>-0.2</v>
-      </c>
-      <c r="V32">
-        <f t="shared" ref="V32:X32" si="5">$S$32*$G$13</f>
-        <v>-0.2</v>
-      </c>
-      <c r="W32">
-        <f t="shared" si="5"/>
-        <v>-0.2</v>
-      </c>
-      <c r="X32">
-        <f t="shared" si="5"/>
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="33" spans="18:24">
-      <c r="R33" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="S33" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="U33">
-        <f>$S$33*$H13</f>
-        <v>0</v>
-      </c>
-      <c r="V33">
-        <f>$S$33*$H14</f>
-        <v>0</v>
-      </c>
-      <c r="W33">
-        <f>$S$33*$H15</f>
-        <v>0.2</v>
-      </c>
-      <c r="X33">
-        <f>$S$33*$H16</f>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="34" spans="18:24">
-      <c r="R34" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="S34" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="U34">
-        <f>$S$34*$I13</f>
-        <v>0</v>
-      </c>
-      <c r="V34">
-        <f>$S$34*$I14</f>
-        <v>0.1</v>
-      </c>
-      <c r="W34">
-        <f>$S$34*$I15</f>
-        <v>0</v>
-      </c>
-      <c r="X34">
-        <f>$S$34*$I16</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="35" spans="18:24">
-      <c r="T35" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="U35">
-        <f>SUM(U32:U34)</f>
-        <v>-0.2</v>
-      </c>
-      <c r="V35">
-        <f t="shared" ref="V35" si="6">SUM(V32:V34)</f>
-        <v>-0.1</v>
-      </c>
-      <c r="W35">
-        <f t="shared" ref="W35" si="7">SUM(W32:W34)</f>
-        <v>0</v>
-      </c>
-      <c r="X35">
-        <f t="shared" ref="X35" si="8">SUM(X32:X34)</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="37" spans="18:24">
-      <c r="U37" t="b">
-        <f>IF(U35&gt;=0,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="V37" t="b">
-        <f>IF(V35&gt;=0,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="W37" t="b">
-        <f>IF(W35&gt;=0,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="X37" t="b">
-        <f>IF(X35&gt;=0,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="T6:X6"/>
-    <mergeCell ref="T22:X22"/>
-    <mergeCell ref="T31:X31"/>
-  </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2600F745-D4D0-4BA0-BE08-0A6CAADD415D}">
   <dimension ref="A1:BZ16"/>
   <sheetViews>
@@ -44942,11 +45206,11 @@
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
-      <c r="T12" s="155" t="s">
+      <c r="T12" s="160" t="s">
         <v>202</v>
       </c>
-      <c r="U12" s="155"/>
-      <c r="V12" s="155"/>
+      <c r="U12" s="160"/>
+      <c r="V12" s="160"/>
       <c r="W12" s="8"/>
       <c r="X12" s="8"/>
       <c r="Y12" s="8"/>
@@ -45360,7 +45624,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4422023-0366-4B9A-B35C-8B38EFA45E0D}">
   <dimension ref="A1:Y28"/>
   <sheetViews>
@@ -45774,7 +46038,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF0F220-8D2B-4177-926C-3992DBC35A3D}">
   <dimension ref="B1:F17"/>
   <sheetViews>
@@ -45976,7 +46240,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2DE6923-A795-4F0A-9D9C-B47CE9B28EC3}">
   <dimension ref="B2:N82"/>
   <sheetViews>
@@ -46520,7 +46784,7 @@
       </c>
     </row>
     <row r="68" spans="2:13">
-      <c r="B68" s="153" t="s">
+      <c r="B68" s="158" t="s">
         <v>267</v>
       </c>
       <c r="C68" s="135" t="s">
@@ -46540,7 +46804,7 @@
       </c>
     </row>
     <row r="69" spans="2:13">
-      <c r="B69" s="153"/>
+      <c r="B69" s="158"/>
       <c r="C69" t="s">
         <v>269</v>
       </c>
@@ -46681,7 +46945,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00AD33BF-8026-494A-9973-7DA17E946863}">
   <dimension ref="B2:U51"/>
   <sheetViews>
@@ -46932,7 +47196,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C1BE58B-0F3D-4088-AD20-14E1EF7635A2}">
   <dimension ref="A2:U29"/>
   <sheetViews>
@@ -47240,7 +47504,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F2E86AC-5B2E-4AF2-9D14-D32B02B97C81}">
   <dimension ref="B2:BT68"/>
   <sheetViews>
@@ -48440,7 +48704,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F0FFC85-2A87-4547-9196-B74228C39EF8}">
   <dimension ref="L2"/>
   <sheetViews>
@@ -48463,7 +48727,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73C5D28B-12AB-469C-B12C-B3C87D88E945}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -48479,7 +48743,700 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C67FDC23-06BC-4968-81B0-E1B757CF44DC}">
+  <dimension ref="B2:X37"/>
+  <sheetViews>
+    <sheetView topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="S35" sqref="S35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="20" max="20" width="9" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:24">
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="2:24">
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24">
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24">
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24">
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="T6" s="158" t="s">
+        <v>57</v>
+      </c>
+      <c r="U6" s="158"/>
+      <c r="V6" s="158"/>
+      <c r="W6" s="158"/>
+      <c r="X6" s="158"/>
+    </row>
+    <row r="7" spans="2:24">
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="R7" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="S7" s="14">
+        <v>-0.5</v>
+      </c>
+      <c r="U7">
+        <f>$S$7*$G13</f>
+        <v>-0.5</v>
+      </c>
+      <c r="V7">
+        <f>$S$7*$G13</f>
+        <v>-0.5</v>
+      </c>
+      <c r="W7">
+        <f>$S$7*$G13</f>
+        <v>-0.5</v>
+      </c>
+      <c r="X7">
+        <f>$S$7*$G13</f>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24">
+      <c r="R8" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="S8" s="14">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <f>$S$8*$H13</f>
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <f>$S$8*$H14</f>
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <f>$S$8*$H15</f>
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <f>$S$8*$H16</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24">
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="R9" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="S9" s="14">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <f>$S$9*$I$13</f>
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <f>$S$9*$I14</f>
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <f>$S$9*$I15</f>
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <f>$S$9*$I16</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="T10" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="U10">
+        <f>SUM(U7:U9)</f>
+        <v>-0.5</v>
+      </c>
+      <c r="V10">
+        <f t="shared" ref="V10:X10" si="0">SUM(V7:V9)</f>
+        <v>0.5</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24">
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="M11" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24">
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="U12" t="b">
+        <f>IF(U10&gt;=0,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V12" t="b">
+        <f>IF(V10&gt;=0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="W12" t="b">
+        <f>IF(W10&gt;=0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="X12" t="b">
+        <f>IF(X10&gt;=0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24">
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="11">
+        <v>1</v>
+      </c>
+      <c r="H13" s="11">
+        <v>0</v>
+      </c>
+      <c r="I13" s="11">
+        <v>0</v>
+      </c>
+      <c r="J13" s="17">
+        <v>0</v>
+      </c>
+      <c r="K13" s="17">
+        <v>0</v>
+      </c>
+      <c r="L13" s="17">
+        <v>0</v>
+      </c>
+      <c r="P13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24">
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="11">
+        <v>1</v>
+      </c>
+      <c r="H14" s="11">
+        <v>0</v>
+      </c>
+      <c r="I14" s="11">
+        <v>1</v>
+      </c>
+      <c r="J14" s="16">
+        <v>1</v>
+      </c>
+      <c r="K14" s="17">
+        <v>0</v>
+      </c>
+      <c r="L14" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24">
+      <c r="G15" s="11">
+        <v>1</v>
+      </c>
+      <c r="H15" s="11">
+        <v>1</v>
+      </c>
+      <c r="I15" s="11">
+        <v>0</v>
+      </c>
+      <c r="J15" s="16">
+        <v>1</v>
+      </c>
+      <c r="K15" s="17">
+        <v>0</v>
+      </c>
+      <c r="L15" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24">
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="11">
+        <v>1</v>
+      </c>
+      <c r="H16" s="11">
+        <v>1</v>
+      </c>
+      <c r="I16" s="11">
+        <v>1</v>
+      </c>
+      <c r="J16" s="16">
+        <v>1</v>
+      </c>
+      <c r="K16" s="16">
+        <v>1</v>
+      </c>
+      <c r="L16" s="17">
+        <v>0</v>
+      </c>
+      <c r="T16" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24">
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="12">
+        <v>0</v>
+      </c>
+      <c r="P17" t="s">
+        <v>49</v>
+      </c>
+      <c r="T17" s="15">
+        <f>M11*S7+M17*S8+M24*S9</f>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24">
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24">
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24">
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24">
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24">
+      <c r="T22" s="158" t="s">
+        <v>58</v>
+      </c>
+      <c r="U22" s="158"/>
+      <c r="V22" s="158"/>
+      <c r="W22" s="158"/>
+      <c r="X22" s="158"/>
+    </row>
+    <row r="23" spans="2:24">
+      <c r="R23" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="S23" s="14">
+        <v>-2</v>
+      </c>
+      <c r="U23">
+        <f>$S$23*$G$13</f>
+        <v>-2</v>
+      </c>
+      <c r="V23">
+        <f t="shared" ref="V23:X23" si="1">$S$23*$G$13</f>
+        <v>-2</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24">
+      <c r="M24" s="12">
+        <v>0</v>
+      </c>
+      <c r="R24" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="S24" s="14">
+        <v>1</v>
+      </c>
+      <c r="U24">
+        <f>$S$24*$H13</f>
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <f>$S$24*$H14</f>
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <f>$S$24*$H15</f>
+        <v>1</v>
+      </c>
+      <c r="X24">
+        <f>$S$24*$H16</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:24">
+      <c r="R25" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="S25" s="14">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <f>$S$25*$I13</f>
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <f>$S$25*$I14</f>
+        <v>1</v>
+      </c>
+      <c r="W25">
+        <f>$S$25*$I15</f>
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <f>$S$25*$I16</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:24">
+      <c r="T26" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="U26">
+        <f>SUM(U23:U25)</f>
+        <v>-2</v>
+      </c>
+      <c r="V26">
+        <f t="shared" ref="V26" si="2">SUM(V23:V25)</f>
+        <v>-1</v>
+      </c>
+      <c r="W26">
+        <f t="shared" ref="W26" si="3">SUM(W23:W25)</f>
+        <v>-1</v>
+      </c>
+      <c r="X26">
+        <f t="shared" ref="X26" si="4">SUM(X23:X25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:24">
+      <c r="U28" t="b">
+        <f>IF(U26&gt;=0,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V28" t="b">
+        <f>IF(V26&gt;=0,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="W28" t="b">
+        <f>IF(W26&gt;=0,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="X28" t="b">
+        <f>IF(X26&gt;=0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:24">
+      <c r="T31" s="158" t="s">
+        <v>59</v>
+      </c>
+      <c r="U31" s="158"/>
+      <c r="V31" s="158"/>
+      <c r="W31" s="158"/>
+      <c r="X31" s="158"/>
+    </row>
+    <row r="32" spans="2:24">
+      <c r="R32" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="S32" s="14">
+        <v>-0.2</v>
+      </c>
+      <c r="U32">
+        <f>$S$32*$G$13</f>
+        <v>-0.2</v>
+      </c>
+      <c r="V32">
+        <f t="shared" ref="V32:X32" si="5">$S$32*$G$13</f>
+        <v>-0.2</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="5"/>
+        <v>-0.2</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="5"/>
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="33" spans="18:24">
+      <c r="R33" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="S33" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="U33">
+        <f>$S$33*$H13</f>
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <f>$S$33*$H14</f>
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <f>$S$33*$H15</f>
+        <v>0.2</v>
+      </c>
+      <c r="X33">
+        <f>$S$33*$H16</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="34" spans="18:24">
+      <c r="R34" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="S34" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="U34">
+        <f>$S$34*$I13</f>
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <f>$S$34*$I14</f>
+        <v>0.1</v>
+      </c>
+      <c r="W34">
+        <f>$S$34*$I15</f>
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <f>$S$34*$I16</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="35" spans="18:24">
+      <c r="T35" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="U35">
+        <f>SUM(U32:U34)</f>
+        <v>-0.2</v>
+      </c>
+      <c r="V35">
+        <f t="shared" ref="V35" si="6">SUM(V32:V34)</f>
+        <v>-0.1</v>
+      </c>
+      <c r="W35">
+        <f t="shared" ref="W35" si="7">SUM(W32:W34)</f>
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <f t="shared" ref="X35" si="8">SUM(X32:X34)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="37" spans="18:24">
+      <c r="U37" t="b">
+        <f>IF(U35&gt;=0,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V37" t="b">
+        <f>IF(V35&gt;=0,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="W37" t="b">
+        <f>IF(W35&gt;=0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="X37" t="b">
+        <f>IF(X35&gt;=0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="T6:X6"/>
+    <mergeCell ref="T22:X22"/>
+    <mergeCell ref="T31:X31"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99BA69A4-A995-4A88-9FAF-7DD694815704}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -48495,224 +49452,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5A7A9CC-3A78-4B1B-8DC9-4EF4C26D9234}">
-  <dimension ref="B2:E23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="2" spans="2:3">
-      <c r="B2" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3">
-      <c r="B3" s="13">
-        <v>-100</v>
-      </c>
-      <c r="C3" s="13">
-        <f>IF(B3&lt;0,-1,1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3">
-      <c r="B4" s="13">
-        <v>-90</v>
-      </c>
-      <c r="C4" s="13">
-        <f t="shared" ref="C4:C23" si="0">IF(B4&lt;0,-1,1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="B5" s="13">
-        <v>-80</v>
-      </c>
-      <c r="C5" s="13">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6" s="13">
-        <v>-70</v>
-      </c>
-      <c r="C6" s="13">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7" s="13">
-        <v>-60</v>
-      </c>
-      <c r="C7" s="13">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="B8" s="13">
-        <v>-50</v>
-      </c>
-      <c r="C8" s="13">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="B9" s="13">
-        <v>-40</v>
-      </c>
-      <c r="C9" s="13">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10" s="13">
-        <v>-30</v>
-      </c>
-      <c r="C10" s="13">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="B11" s="13">
-        <v>-20</v>
-      </c>
-      <c r="C11" s="13">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12" s="13">
-        <v>-10</v>
-      </c>
-      <c r="C12" s="13">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3">
-      <c r="B13" s="13">
-        <v>0</v>
-      </c>
-      <c r="C13" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3">
-      <c r="B14" s="13">
-        <v>10</v>
-      </c>
-      <c r="C14" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3">
-      <c r="B15" s="13">
-        <v>20</v>
-      </c>
-      <c r="C15" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3">
-      <c r="B16" s="13">
-        <v>30</v>
-      </c>
-      <c r="C16" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="13">
-        <v>40</v>
-      </c>
-      <c r="C17" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="13">
-        <v>50</v>
-      </c>
-      <c r="C18" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="13">
-        <v>60</v>
-      </c>
-      <c r="C19" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="13">
-        <v>70</v>
-      </c>
-      <c r="C20" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="13">
-        <v>80</v>
-      </c>
-      <c r="C21" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="13">
-        <v>90</v>
-      </c>
-      <c r="C22" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="13">
-        <v>100</v>
-      </c>
-      <c r="C23" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD6BA3F4-060D-4EA8-B390-A4D5026A37E6}">
   <dimension ref="B2:L26"/>
   <sheetViews>
@@ -48762,13 +49502,13 @@
       </c>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="153" t="s">
+      <c r="B7" s="158" t="s">
         <v>324</v>
       </c>
       <c r="C7" s="135" t="s">
         <v>331</v>
       </c>
-      <c r="D7" s="156" t="s">
+      <c r="D7" s="161" t="s">
         <v>333</v>
       </c>
       <c r="E7" s="135">
@@ -48776,11 +49516,11 @@
       </c>
     </row>
     <row r="8" spans="2:12" ht="17.25" thickBot="1">
-      <c r="B8" s="153"/>
+      <c r="B8" s="158"/>
       <c r="C8" t="s">
         <v>332</v>
       </c>
-      <c r="D8" s="153"/>
+      <c r="D8" s="158"/>
       <c r="E8">
         <v>70</v>
       </c>
@@ -48826,7 +49566,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB4815C-3B46-41DF-A416-BFDAF3009D2F}">
   <dimension ref="B3:L6"/>
   <sheetViews>
@@ -48858,7 +49598,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53B3C56-6CA7-45DC-AD78-98FA5999B09D}">
   <dimension ref="B2:D5"/>
   <sheetViews>
@@ -48903,7 +49643,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F82608DA-4C1A-43B7-80D6-5DD1B9622C90}">
   <dimension ref="C2:L6"/>
   <sheetViews>
@@ -48930,7 +49670,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7086D54B-A00D-446E-B1A7-A8C1A731613A}">
   <dimension ref="B13:G22"/>
   <sheetViews>
@@ -49086,7 +49826,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28C63C69-5C81-485E-AC82-42BD329F7B60}">
   <dimension ref="B3:M103"/>
   <sheetViews>
@@ -49191,33 +49931,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453FBB9A-6213-4681-A84C-1868BB2A14A8}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34BAD994-83D6-4AFF-84D4-D8AAB2CFE884}">
   <dimension ref="A1:AJ48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="P44" sqref="P44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -49228,7 +49947,7 @@
     <row r="1" spans="1:36">
       <c r="A1" s="26"/>
       <c r="B1" s="26" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C1" s="26"/>
       <c r="D1" s="26"/>
@@ -49267,105 +49986,105 @@
     </row>
     <row r="4" spans="1:36">
       <c r="B4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="5" spans="1:36">
       <c r="B5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="6" spans="1:36">
-      <c r="B6" s="161" t="s">
-        <v>411</v>
+      <c r="B6" s="157" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="7" spans="1:36">
       <c r="B7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="8" spans="1:36">
-      <c r="B8" s="161" t="s">
-        <v>409</v>
+      <c r="B8" s="157" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="9" spans="1:36">
       <c r="B9" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="10" spans="1:36">
-      <c r="B10" s="161" t="s">
-        <v>407</v>
+      <c r="B10" s="157" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="11" spans="1:36">
       <c r="B11" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="12" spans="1:36">
-      <c r="B12" s="161" t="s">
-        <v>405</v>
+      <c r="B12" s="157" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="13" spans="1:36">
-      <c r="B13" s="161" t="s">
-        <v>404</v>
+      <c r="B13" s="157" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="14" spans="1:36">
-      <c r="B14" s="161" t="s">
-        <v>403</v>
+      <c r="B14" s="157" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="15" spans="1:36">
-      <c r="B15" s="161" t="s">
-        <v>402</v>
+      <c r="B15" s="157" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="16" spans="1:36">
-      <c r="B16" s="161" t="s">
-        <v>401</v>
+      <c r="B16" s="157" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="17" spans="2:36">
       <c r="B17" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="19" spans="2:36">
       <c r="B19" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="20" spans="2:36">
       <c r="B20" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="21" spans="2:36">
       <c r="B21" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="22" spans="2:36">
       <c r="B22" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="R22" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="23" spans="2:36">
       <c r="B23" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="25" spans="2:36">
-      <c r="B25" s="160" t="s">
-        <v>393</v>
+      <c r="B25" s="156" t="s">
+        <v>392</v>
       </c>
       <c r="AB25" s="13"/>
       <c r="AC25" s="13"/>
@@ -49376,7 +50095,7 @@
       <c r="M26" s="13"/>
       <c r="N26" s="13"/>
       <c r="P26" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="S26">
         <v>27</v>
@@ -49398,151 +50117,151 @@
     </row>
     <row r="28" spans="2:36">
       <c r="E28" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L28" s="13"/>
       <c r="M28" s="13"/>
       <c r="N28" s="13"/>
       <c r="O28" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="S28" s="13"/>
       <c r="T28" s="13"/>
       <c r="U28" s="13"/>
       <c r="Y28" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="29" spans="2:36">
       <c r="J29" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Q29" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="S29" s="13"/>
       <c r="T29" s="13"/>
       <c r="U29" s="13"/>
       <c r="V29" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Y29" s="26"/>
       <c r="AC29" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AE29" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="30" spans="2:36">
       <c r="J30" s="26"/>
       <c r="O30" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q30" s="26"/>
       <c r="W30" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Y30" s="26"/>
       <c r="AB30" t="s">
-        <v>387</v>
-      </c>
-      <c r="AE30" s="157"/>
+        <v>386</v>
+      </c>
+      <c r="AE30" s="153"/>
     </row>
     <row r="31" spans="2:36">
       <c r="J31" s="26"/>
       <c r="Q31" s="26"/>
       <c r="Y31" s="26"/>
-      <c r="AE31" s="157"/>
+      <c r="AE31" s="153"/>
       <c r="AG31" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="32" spans="2:36">
       <c r="J32" s="26"/>
-      <c r="O32" s="159"/>
+      <c r="O32" s="155"/>
       <c r="Q32" s="26"/>
-      <c r="W32" s="159"/>
+      <c r="W32" s="155"/>
       <c r="Y32" s="26"/>
-      <c r="AB32" s="159"/>
-      <c r="AE32" s="157"/>
+      <c r="AB32" s="155"/>
+      <c r="AE32" s="153"/>
       <c r="AJ32" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="33" spans="8:36">
       <c r="J33" s="26"/>
-      <c r="O33" s="159"/>
+      <c r="O33" s="155"/>
       <c r="Q33" s="26"/>
-      <c r="W33" s="159"/>
+      <c r="W33" s="155"/>
       <c r="Y33" s="26"/>
-      <c r="AB33" s="159"/>
-      <c r="AE33" s="157"/>
-      <c r="AG33" s="158"/>
+      <c r="AB33" s="155"/>
+      <c r="AE33" s="153"/>
+      <c r="AG33" s="154"/>
     </row>
     <row r="34" spans="8:36">
       <c r="J34" s="26"/>
-      <c r="O34" s="159"/>
+      <c r="O34" s="155"/>
       <c r="Q34" s="26"/>
-      <c r="W34" s="159"/>
+      <c r="W34" s="155"/>
       <c r="Y34" s="26"/>
-      <c r="AB34" s="159"/>
-      <c r="AE34" s="157"/>
-      <c r="AG34" s="158"/>
-      <c r="AJ34" s="158"/>
+      <c r="AB34" s="155"/>
+      <c r="AE34" s="153"/>
+      <c r="AG34" s="154"/>
+      <c r="AJ34" s="154"/>
     </row>
     <row r="35" spans="8:36">
       <c r="J35" s="26"/>
-      <c r="O35" s="159"/>
+      <c r="O35" s="155"/>
       <c r="Q35" s="26"/>
-      <c r="W35" s="159"/>
+      <c r="W35" s="155"/>
       <c r="Y35" s="26"/>
-      <c r="AB35" s="159"/>
-      <c r="AE35" s="157"/>
-      <c r="AG35" s="158"/>
-      <c r="AJ35" s="158"/>
+      <c r="AB35" s="155"/>
+      <c r="AE35" s="153"/>
+      <c r="AG35" s="154"/>
+      <c r="AJ35" s="154"/>
     </row>
     <row r="36" spans="8:36">
       <c r="J36" s="26"/>
-      <c r="O36" s="159"/>
+      <c r="O36" s="155"/>
       <c r="Q36" s="26"/>
-      <c r="W36" s="159"/>
+      <c r="W36" s="155"/>
       <c r="Y36" s="26"/>
-      <c r="AB36" s="159"/>
-      <c r="AE36" s="157"/>
-      <c r="AG36" s="158"/>
+      <c r="AB36" s="155"/>
+      <c r="AE36" s="153"/>
+      <c r="AG36" s="154"/>
     </row>
     <row r="37" spans="8:36">
       <c r="J37" s="26"/>
-      <c r="O37" s="159"/>
+      <c r="O37" s="155"/>
       <c r="Q37" s="26"/>
-      <c r="W37" s="159"/>
+      <c r="W37" s="155"/>
       <c r="Y37" s="26"/>
-      <c r="AB37" s="159"/>
-      <c r="AE37" s="157"/>
-      <c r="AG37" s="158"/>
+      <c r="AB37" s="155"/>
+      <c r="AE37" s="153"/>
+      <c r="AG37" s="154"/>
     </row>
     <row r="38" spans="8:36">
       <c r="J38" s="26"/>
       <c r="Q38" s="26"/>
-      <c r="AE38" s="157"/>
-      <c r="AG38" s="158"/>
+      <c r="AE38" s="153"/>
+      <c r="AG38" s="154"/>
     </row>
     <row r="39" spans="8:36">
       <c r="H39" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="S39" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="Z39" t="s">
-        <v>384</v>
-      </c>
-      <c r="AE39" s="157"/>
+        <v>383</v>
+      </c>
+      <c r="AE39" s="153"/>
     </row>
     <row r="40" spans="8:36">
       <c r="H40" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J40">
         <v>32</v>
@@ -49551,42 +50270,42 @@
         <v>32</v>
       </c>
       <c r="S40" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="Y40">
         <v>64</v>
       </c>
       <c r="Z40" t="s">
-        <v>382</v>
-      </c>
-      <c r="AE40" s="157"/>
+        <v>381</v>
+      </c>
+      <c r="AE40" s="153"/>
       <c r="AG40">
         <v>64</v>
       </c>
     </row>
     <row r="41" spans="8:36">
       <c r="H41" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O41" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="W41" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="42" spans="8:36">
       <c r="K42" t="s">
+        <v>374</v>
+      </c>
+      <c r="O42" t="s">
+        <v>377</v>
+      </c>
+      <c r="W42" t="s">
+        <v>376</v>
+      </c>
+      <c r="AB42" t="s">
         <v>375</v>
-      </c>
-      <c r="O42" t="s">
-        <v>378</v>
-      </c>
-      <c r="W42" t="s">
-        <v>377</v>
-      </c>
-      <c r="AB42" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="43" spans="8:36">
@@ -49594,16 +50313,16 @@
         <v>896</v>
       </c>
       <c r="P43" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AC43" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AF43" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AI43" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="44" spans="8:36">
@@ -49622,12 +50341,278 @@
     </row>
     <row r="47" spans="8:36">
       <c r="W47" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="48" spans="8:36">
       <c r="W48">
         <v>1212513</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453FBB9A-6213-4681-A84C-1868BB2A14A8}">
+  <dimension ref="A2:I30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" s="26" customFormat="1">
+      <c r="B2" s="26" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="B4" s="162">
+        <v>-0.65769999999999995</v>
+      </c>
+      <c r="C4" s="162">
+        <v>-0.57969999999999999</v>
+      </c>
+      <c r="D4" s="162">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>416</v>
+      </c>
+      <c r="B5" s="164">
+        <f>(B4-$B$16)/$B$18</f>
+        <v>-1.3246573531133636</v>
+      </c>
+      <c r="C5" s="164">
+        <f>(C4-$C$16)/$C$18</f>
+        <v>-1.349266864180356</v>
+      </c>
+      <c r="D5" s="164">
+        <f>(D4-$D$16)/$D$18</f>
+        <v>-0.37556486978580672</v>
+      </c>
+      <c r="G5" s="23">
+        <v>-1.3246573531133636</v>
+      </c>
+      <c r="H5" s="23">
+        <v>-1.349266864180356</v>
+      </c>
+      <c r="I5" s="23">
+        <v>-0.37556486978580672</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="B6" s="162">
+        <v>0.73919999999999997</v>
+      </c>
+      <c r="C6" s="162">
+        <v>0.2145</v>
+      </c>
+      <c r="D6" s="162">
+        <v>1.5229999999999999</v>
+      </c>
+      <c r="G6" s="23">
+        <v>1.0912367933276554</v>
+      </c>
+      <c r="H6" s="23">
+        <v>0.30774217174362528</v>
+      </c>
+      <c r="I6" s="23">
+        <v>1.3685505202666048</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B7" s="164">
+        <f>(B6-$B$16)/$B$18</f>
+        <v>1.0912367933276554</v>
+      </c>
+      <c r="C7" s="164">
+        <f>(C6-$C$16)/$C$18</f>
+        <v>0.30774217174362528</v>
+      </c>
+      <c r="D7" s="164">
+        <f>(D6-$D$16)/$D$18</f>
+        <v>1.3685505202666048</v>
+      </c>
+      <c r="G7" s="23">
+        <v>0.23342055978570855</v>
+      </c>
+      <c r="H7" s="23">
+        <v>1.0415246924367307</v>
+      </c>
+      <c r="I7" s="23">
+        <v>-0.9929856504807979</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="B8" s="162">
+        <v>0.2432</v>
+      </c>
+      <c r="C8" s="162">
+        <v>0.56620000000000004</v>
+      </c>
+      <c r="D8" s="162">
+        <v>0.32200000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>416</v>
+      </c>
+      <c r="B9" s="164">
+        <f>(B8-$B$16)/$B$18</f>
+        <v>0.23342055978570855</v>
+      </c>
+      <c r="C9" s="164">
+        <f>(C8-$C$16)/$C$18</f>
+        <v>1.0415246924367307</v>
+      </c>
+      <c r="D9" s="164">
+        <f>(D8-$D$16)/$D$18</f>
+        <v>-0.9929856504807979</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="B10" s="163"/>
+      <c r="C10" s="163"/>
+      <c r="D10" s="163"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="B11" s="163"/>
+      <c r="C11" s="163"/>
+      <c r="D11" s="163"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12" s="163"/>
+      <c r="C12" s="163"/>
+      <c r="D12" s="163"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="B13" s="163"/>
+      <c r="C13" s="163"/>
+      <c r="D13" s="163"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>415</v>
+      </c>
+      <c r="B15">
+        <v>0.32469999999999999</v>
+      </c>
+      <c r="C15">
+        <v>0.20100000000000007</v>
+      </c>
+      <c r="D15">
+        <v>2.4809999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16">
+        <v>0.10823333333333333</v>
+      </c>
+      <c r="C16">
+        <v>6.7000000000000018E-2</v>
+      </c>
+      <c r="D16">
+        <v>0.82699999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>161</v>
+      </c>
+      <c r="B17">
+        <v>0.33432960222222219</v>
+      </c>
+      <c r="C17">
+        <v>0.22972592666666664</v>
+      </c>
+      <c r="D17">
+        <v>0.25864066666666674</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18">
+        <v>0.57821241963678205</v>
+      </c>
+      <c r="C18">
+        <v>0.4792973259540122</v>
+      </c>
+      <c r="D18">
+        <v>0.50856726857581658</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="26" customFormat="1"/>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{330E4A64-B562-4E99-A352-6ED48DC45746}">
+  <dimension ref="B2:H129"/>
+  <sheetViews>
+    <sheetView topLeftCell="A142" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="2" spans="2:8" s="26" customFormat="1">
+      <c r="B2" s="26" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" t="s">
+        <v>421</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" s="26" customFormat="1">
+      <c r="B86" s="26" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" s="26" customFormat="1">
+      <c r="B129" s="26" t="s">
+        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -49638,6 +50623,223 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5A7A9CC-3A78-4B1B-8DC9-4EF4C26D9234}">
+  <dimension ref="B2:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="13">
+        <v>-100</v>
+      </c>
+      <c r="C3" s="13">
+        <f>IF(B3&lt;0,-1,1)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="13">
+        <v>-90</v>
+      </c>
+      <c r="C4" s="13">
+        <f t="shared" ref="C4:C23" si="0">IF(B4&lt;0,-1,1)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="13">
+        <v>-80</v>
+      </c>
+      <c r="C5" s="13">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="13">
+        <v>-70</v>
+      </c>
+      <c r="C6" s="13">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="13">
+        <v>-60</v>
+      </c>
+      <c r="C7" s="13">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="13">
+        <v>-50</v>
+      </c>
+      <c r="C8" s="13">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="13">
+        <v>-40</v>
+      </c>
+      <c r="C9" s="13">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="13">
+        <v>-30</v>
+      </c>
+      <c r="C10" s="13">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="13">
+        <v>-20</v>
+      </c>
+      <c r="C11" s="13">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" s="13">
+        <v>-10</v>
+      </c>
+      <c r="C12" s="13">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" s="13">
+        <v>0</v>
+      </c>
+      <c r="C13" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" s="13">
+        <v>10</v>
+      </c>
+      <c r="C14" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" s="13">
+        <v>20</v>
+      </c>
+      <c r="C15" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" s="13">
+        <v>30</v>
+      </c>
+      <c r="C16" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="13">
+        <v>40</v>
+      </c>
+      <c r="C17" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="13">
+        <v>50</v>
+      </c>
+      <c r="C18" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="13">
+        <v>60</v>
+      </c>
+      <c r="C19" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="13">
+        <v>70</v>
+      </c>
+      <c r="C20" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="13">
+        <v>80</v>
+      </c>
+      <c r="C21" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="13">
+        <v>90</v>
+      </c>
+      <c r="C22" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="13">
+        <v>100</v>
+      </c>
+      <c r="C23" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6B113C3-EE4C-4CC0-B186-2E6B19C2DF2B}">
   <dimension ref="C3:V29"/>
   <sheetViews>
@@ -49975,7 +51177,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{942424F8-F719-4701-BCFD-5041DBDDD9EB}">
   <dimension ref="B3:I455"/>
   <sheetViews>
@@ -54083,7 +55285,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{013D6B73-08C0-4368-9628-4A1E042F5EBB}">
   <dimension ref="B2:H10"/>
   <sheetViews>
@@ -54210,7 +55412,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{197276DF-7DB8-4676-8497-609F0AF39F78}">
   <dimension ref="B2:C7"/>
   <sheetViews>
@@ -54275,7 +55477,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E35917-F184-4AF7-8281-D8C7F8F57816}">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -54402,162 +55604,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F78CEA8-5975-4C84-8FED-21999E477B5E}">
-  <dimension ref="D4:N18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="4:14">
-      <c r="F4" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="4:14">
-      <c r="F5" s="11"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-    </row>
-    <row r="6" spans="4:14">
-      <c r="F6" s="11"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-    </row>
-    <row r="7" spans="4:14">
-      <c r="F7" s="11"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-    </row>
-    <row r="8" spans="4:14">
-      <c r="F8" s="11"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-    </row>
-    <row r="9" spans="4:14">
-      <c r="F9" s="11"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-    </row>
-    <row r="10" spans="4:14">
-      <c r="D10" t="s">
-        <v>121</v>
-      </c>
-      <c r="E10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" spans="4:14">
-      <c r="D11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="4:14">
-      <c r="D12" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="14" spans="4:14">
-      <c r="F14" t="s">
-        <v>125</v>
-      </c>
-      <c r="G14" t="s">
-        <v>126</v>
-      </c>
-      <c r="J14" t="s">
-        <v>127</v>
-      </c>
-      <c r="K14" t="s">
-        <v>128</v>
-      </c>
-      <c r="L14" t="s">
-        <v>136</v>
-      </c>
-      <c r="M14" t="s">
-        <v>130</v>
-      </c>
-      <c r="N14" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="15" spans="4:14">
-      <c r="F15" t="s">
-        <v>132</v>
-      </c>
-      <c r="G15" t="s">
-        <v>133</v>
-      </c>
-      <c r="J15" t="s">
-        <v>140</v>
-      </c>
-      <c r="K15" t="s">
-        <v>141</v>
-      </c>
-      <c r="L15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="16" spans="4:14">
-      <c r="F16" t="s">
-        <v>138</v>
-      </c>
-      <c r="G16" t="s">
-        <v>139</v>
-      </c>
-      <c r="J16" t="s">
-        <v>134</v>
-      </c>
-      <c r="K16" t="s">
-        <v>135</v>
-      </c>
-      <c r="L16" t="s">
-        <v>131</v>
-      </c>
-      <c r="M16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="18" spans="6:8">
-      <c r="F18" t="s">
-        <v>143</v>
-      </c>
-      <c r="H18" t="s">
-        <v>144</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>